--- a/MMB_Estimation/OUTPUT/IRFs/NK_RW97_20074_RT_EW_MHforecast.xlsx
+++ b/MMB_Estimation/OUTPUT/IRFs/NK_RW97_20074_RT_EW_MHforecast.xlsx
@@ -460,13 +460,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.23334005003598987</v>
+        <v>0.22746175760653475</v>
       </c>
       <c r="B2">
-        <v>-5.9096017398877043E-2</v>
+        <v>-8.3090439650972667E-2</v>
       </c>
       <c r="C2">
-        <v>-0.18508325975681922</v>
+        <v>-0.18637873964740675</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -475,16 +475,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.51395852578581191</v>
+        <v>0.38282032261226967</v>
       </c>
       <c r="G2">
-        <v>1.0390732205091766E-2</v>
+        <v>1.0098599650121387E-2</v>
       </c>
       <c r="H2">
-        <v>1.5753448303563122E-2</v>
+        <v>1.9930315883803729E-2</v>
       </c>
       <c r="I2">
-        <v>0.64896682569071273</v>
+        <v>0.747512821335932</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -493,27 +493,27 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.1547816358235404E-2</v>
+        <v>9.9532549149931523E-2</v>
       </c>
       <c r="M2">
-        <v>7.1354331728156042E-2</v>
+        <v>7.4789811007050996E-2</v>
       </c>
       <c r="N2">
-        <v>0.26560961307599951</v>
+        <v>0.27766313942872906</v>
       </c>
       <c r="O2">
-        <v>-8.4852730731796278E-2</v>
+        <v>-0.11230587386888337</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.16343688257247446</v>
+        <v>0.15687560628401945</v>
       </c>
       <c r="B3">
-        <v>-4.1368179806733449E-2</v>
+        <v>-5.7049796823431406E-2</v>
       </c>
       <c r="C3">
-        <v>5.5425159344121629E-2</v>
+        <v>5.7494303147971305E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -522,16 +522,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-6.344743689330426E-2</v>
+        <v>-7.0477248484972402E-2</v>
       </c>
       <c r="G3">
-        <v>1.2700938295485749E-2</v>
+        <v>1.1535055628446199E-2</v>
       </c>
       <c r="H3">
-        <v>6.2959734405358091E-3</v>
+        <v>6.6895190368156908E-3</v>
       </c>
       <c r="I3">
-        <v>0.2168419964285061</v>
+        <v>0.22273920599824026</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -540,27 +540,27 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-3.390815271399962E-2</v>
+        <v>-4.3741582889869658E-2</v>
       </c>
       <c r="M3">
-        <v>0.11473146416217848</v>
+        <v>0.12080732528331896</v>
       </c>
       <c r="N3">
-        <v>0.22854333201978649</v>
+        <v>0.2396846509746918</v>
       </c>
       <c r="O3">
-        <v>-3.1684948337886071E-2</v>
+        <v>-3.3414376313776813E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.11449037317059643</v>
+        <v>0.10844131362235901</v>
       </c>
       <c r="B4">
-        <v>-2.8962132513962638E-2</v>
+        <v>-3.9257017335903116E-2</v>
       </c>
       <c r="C4">
-        <v>3.8815504538523463E-2</v>
+        <v>3.9548812199390306E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -569,16 +569,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-5.4980426201847572E-2</v>
+        <v>-5.4094895153475618E-2</v>
       </c>
       <c r="G4">
-        <v>1.1757993356624074E-2</v>
+        <v>1.0069349670663351E-2</v>
       </c>
       <c r="H4">
-        <v>2.0032414198440187E-3</v>
+        <v>1.4817135935526267E-3</v>
       </c>
       <c r="I4">
-        <v>0.11061704832336391</v>
+        <v>9.9674874994911566E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -587,27 +587,27 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>-1.9909315998920936E-2</v>
+        <v>-2.0805150894832519E-2</v>
       </c>
       <c r="M4">
-        <v>0.13915487364234147</v>
+        <v>0.14758889082020021</v>
       </c>
       <c r="N4">
-        <v>0.19875191202362738</v>
+        <v>0.21041940650907803</v>
       </c>
       <c r="O4">
-        <v>-1.6977581439404074E-2</v>
+        <v>-1.8197951463366672E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8.021324769791556E-2</v>
+        <v>7.5129343221623374E-2</v>
       </c>
       <c r="B5">
-        <v>-2.0279194032086383E-2</v>
+        <v>-2.7072541081354561E-2</v>
       </c>
       <c r="C5">
-        <v>2.7186955873103727E-2</v>
+        <v>2.7270406343004941E-2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -616,16 +616,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.7703191548628704E-2</v>
+        <v>-4.2182067580708631E-2</v>
       </c>
       <c r="G5">
-        <v>9.7596786284332125E-3</v>
+        <v>7.9404430502014612E-3</v>
       </c>
       <c r="H5">
-        <v>1.603626868942455E-4</v>
+        <v>-4.0589331879600516E-4</v>
       </c>
       <c r="I5">
-        <v>5.7845532658335773E-2</v>
+        <v>4.653636212020431E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -634,27 +634,27 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-1.2051503451993394E-2</v>
+        <v>-1.1205494201764789E-2</v>
       </c>
       <c r="M5">
-        <v>0.1508756850115055</v>
+        <v>0.16158192393732621</v>
       </c>
       <c r="N5">
-        <v>0.17440802791102475</v>
+        <v>0.18734206081038068</v>
       </c>
       <c r="O5">
-        <v>-7.1717372863223539E-3</v>
+        <v>-8.13423147898573E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5.6205855906303497E-2</v>
+        <v>5.2165286034484594E-2</v>
       </c>
       <c r="B6">
-        <v>-1.4201263221310403E-2</v>
+        <v>-1.8710105506189529E-2</v>
       </c>
       <c r="C6">
-        <v>1.9044654688969962E-2</v>
+        <v>1.8848760089934063E-2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -663,16 +663,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-4.144127799403393E-2</v>
+        <v>-3.3373098619463283E-2</v>
       </c>
       <c r="G6">
-        <v>7.6534296050212941E-3</v>
+        <v>5.9528554806657641E-3</v>
       </c>
       <c r="H6">
-        <v>-5.3842894543314971E-4</v>
+        <v>-9.4671135147789197E-4</v>
       </c>
       <c r="I6">
-        <v>3.0957715782667618E-2</v>
+        <v>2.2667157157110689E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -681,27 +681,27 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-7.542758365427147E-3</v>
+        <v>-6.608602451099981E-3</v>
       </c>
       <c r="M6">
-        <v>0.15421249167785153</v>
+        <v>0.16714744971216564</v>
       </c>
       <c r="N6">
-        <v>0.15419954691934593</v>
+        <v>0.16871829096189961</v>
       </c>
       <c r="O6">
-        <v>-7.484012290104561E-4</v>
+        <v>-1.5570747252342037E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.9389046628804464E-2</v>
+        <v>3.6298710120984859E-2</v>
       </c>
       <c r="B7">
-        <v>-9.9462528302190004E-3</v>
+        <v>-1.2958197839759608E-2</v>
       </c>
       <c r="C7">
-        <v>1.33426749377594E-2</v>
+        <v>1.305836040339275E-2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-3.6046753543273559E-2</v>
+        <v>-2.6754680561590097E-2</v>
       </c>
       <c r="G7">
-        <v>5.8016133646798806E-3</v>
+        <v>4.3368395017559071E-3</v>
       </c>
       <c r="H7">
-        <v>-7.2183698135149432E-4</v>
+        <v>-9.709838697184622E-4</v>
       </c>
       <c r="I7">
-        <v>1.693045969622136E-2</v>
+        <v>1.15025718244925E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -728,27 +728,27 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-4.8906745844036446E-3</v>
+        <v>-4.1865479459875753E-3</v>
       </c>
       <c r="M7">
-        <v>0.1521378057631852</v>
+        <v>0.16723468621232185</v>
       </c>
       <c r="N7">
-        <v>0.13717784932014454</v>
+        <v>0.15334993651176604</v>
       </c>
       <c r="O7">
-        <v>3.3502745778431118E-3</v>
+        <v>2.6624752885338727E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.7607552741146641E-2</v>
+        <v>2.5311488072174447E-2</v>
       </c>
       <c r="B8">
-        <v>-6.9670405512564648E-3</v>
+        <v>-8.9932897947565069E-3</v>
       </c>
       <c r="C8">
-        <v>9.3491062879712539E-3</v>
+        <v>9.067534935849459E-3</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3.1394054133153014E-2</v>
+        <v>-2.1706986159083171E-2</v>
       </c>
       <c r="G8">
-        <v>4.30243097364311E-3</v>
+        <v>3.1050135727265955E-3</v>
       </c>
       <c r="H8">
-        <v>-6.8991193720625073E-4</v>
+        <v>-8.2423486487778037E-4</v>
       </c>
       <c r="I8">
-        <v>9.4498735976468115E-3</v>
+        <v>6.0662255322993476E-3</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -775,27 +775,27 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>-3.287076697302339E-3</v>
+        <v>-2.810681615756528E-3</v>
       </c>
       <c r="M8">
-        <v>0.14668751069334496</v>
+        <v>0.16383593804477206</v>
       </c>
       <c r="N8">
-        <v>0.1226514941870324</v>
+        <v>0.14040345337749105</v>
       </c>
       <c r="O8">
-        <v>5.8601387688392353E-3</v>
+        <v>5.2906274407193872E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.9352585039688605E-2</v>
+        <v>1.7686396802555772E-2</v>
       </c>
       <c r="B9">
-        <v>-4.8808290885494826E-3</v>
+        <v>-6.254340886433383E-3</v>
       </c>
       <c r="C9">
-        <v>6.5517117215120385E-3</v>
+        <v>6.310490621340684E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -804,16 +804,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-2.7376495342704397E-2</v>
+        <v>-1.7803076445863968E-2</v>
       </c>
       <c r="G9">
-        <v>3.1432520543063966E-3</v>
+        <v>2.1987606059496283E-3</v>
       </c>
       <c r="H9">
-        <v>-5.8253559996845894E-4</v>
+        <v>-6.4484331013220484E-4</v>
       </c>
       <c r="I9">
-        <v>5.3778611056301308E-3</v>
+        <v>3.3144241391711033E-3</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -822,27 +822,27 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>-2.2879199740160369E-3</v>
+        <v>-1.9794291122645635E-3</v>
       </c>
       <c r="M9">
-        <v>0.13924666438497935</v>
+        <v>0.15829399673183309</v>
       </c>
       <c r="N9">
-        <v>0.11011159746282211</v>
+        <v>0.12929415807970387</v>
       </c>
       <c r="O9">
-        <v>7.2922750215456255E-3</v>
+        <v>6.8480968229998208E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.3567779677024815E-2</v>
+        <v>1.238322472950232E-2</v>
       </c>
       <c r="B10">
-        <v>-3.4197579617009275E-3</v>
+        <v>-4.3582875596453081E-3</v>
       </c>
       <c r="C10">
-        <v>4.5919489726768715E-3</v>
+        <v>4.4013674172765499E-3</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-2.39033418196706E-2</v>
+        <v>-1.4744491741312845E-2</v>
       </c>
       <c r="G10">
-        <v>2.2721777134912338E-3</v>
+        <v>1.5460784343499822E-3</v>
       </c>
       <c r="H10">
-        <v>-4.6184209053597619E-4</v>
+        <v>-4.8309654048287164E-4</v>
       </c>
       <c r="I10">
-        <v>3.1180272543001718E-3</v>
+        <v>1.8697297388236844E-3</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -869,27 +869,27 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>-1.6452635840731495E-3</v>
+        <v>-1.450413014177131E-3</v>
       </c>
       <c r="M10">
-        <v>0.13074892167598495</v>
+        <v>0.1515102988445258</v>
       </c>
       <c r="N10">
-        <v>9.9179397926927704E-2</v>
+        <v>0.11960791457161893</v>
       </c>
       <c r="O10">
-        <v>8.0009374640415565E-3</v>
+        <v>7.6891044811995051E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.5134358072768779E-3</v>
+        <v>8.6871576457616378E-3</v>
       </c>
       <c r="B11">
-        <v>-2.3963692108962542E-3</v>
+        <v>-3.0430082836946822E-3</v>
       </c>
       <c r="C11">
-        <v>3.2188223892848367E-3</v>
+        <v>3.0763728221264827E-3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-2.0897343495817962E-2</v>
+        <v>-1.2319522329862288E-2</v>
       </c>
       <c r="G11">
-        <v>1.6298871451983191E-3</v>
+        <v>1.0822901985558049E-3</v>
       </c>
       <c r="H11">
-        <v>-3.5278666476419433E-4</v>
+        <v>-3.5277928312788486E-4</v>
       </c>
       <c r="I11">
-        <v>1.8405731802241562E-3</v>
+        <v>1.0853008619798787E-3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -916,27 +916,27 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-1.2181828938306511E-3</v>
+        <v>-1.0983411441009138E-3</v>
       </c>
       <c r="M11">
-        <v>0.12181561382555398</v>
+        <v>0.14408616012201458</v>
       </c>
       <c r="N11">
-        <v>8.9569355398458964E-2</v>
+        <v>0.11104800696771625</v>
       </c>
       <c r="O11">
-        <v>8.231013306688616E-3</v>
+        <v>8.0547269280571779E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6.6715215995199412E-3</v>
+        <v>6.1058702576170113E-3</v>
       </c>
       <c r="B12">
-        <v>-1.6794565317244227E-3</v>
+        <v>-2.1287474081759638E-3</v>
       </c>
       <c r="C12">
-        <v>2.2566008805532021E-3</v>
+        <v>2.1547282356220894E-3</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -945,16 +945,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-1.8292662712925997E-2</v>
+        <v>-1.0375841009481511E-2</v>
       </c>
       <c r="G12">
-        <v>1.1624865238351293E-3</v>
+        <v>7.5557646672258917E-4</v>
       </c>
       <c r="H12">
-        <v>-2.6310529909829357E-4</v>
+        <v>-2.5352074213546173E-4</v>
       </c>
       <c r="I12">
-        <v>1.1055043562935851E-3</v>
+        <v>6.4613858634324239E-4</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -963,27 +963,27 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>-9.2500793883163823E-4</v>
+        <v>-8.5474432505049222E-4</v>
       </c>
       <c r="M12">
-        <v>0.11285267778958621</v>
+        <v>0.13641878024062573</v>
       </c>
       <c r="N12">
-        <v>8.1063128941743182E-2</v>
+        <v>0.10339899299464922</v>
       </c>
       <c r="O12">
-        <v>8.1511790082999126E-3</v>
+        <v>8.1090064293919597E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4.6791974869641534E-3</v>
+        <v>4.2995141876612832E-3</v>
       </c>
       <c r="B13">
-        <v>-1.1771737215147311E-3</v>
+        <v>-1.4919666099591383E-3</v>
       </c>
       <c r="C13">
-        <v>1.5822327238200083E-3</v>
+        <v>1.512247574462342E-3</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -992,16 +992,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-1.6033128910784376E-2</v>
+        <v>-8.8023285972354537E-3</v>
       </c>
       <c r="G13">
-        <v>8.2555472775843375E-4</v>
+        <v>5.2671408098260589E-4</v>
       </c>
       <c r="H13">
-        <v>-1.9304634220983373E-4</v>
+        <v>-1.8031241136160344E-4</v>
       </c>
       <c r="I13">
-        <v>6.7516810780066723E-4</v>
+        <v>3.9339778358423821E-4</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1010,27 +1010,27 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>-7.17402076136057E-4</v>
+        <v>-6.8040046882024549E-4</v>
       </c>
       <c r="M13">
-        <v>0.10411814728785206</v>
+        <v>0.12876661392784666</v>
       </c>
       <c r="N13">
-        <v>7.349118221915249E-2</v>
+        <v>9.6502033397777909E-2</v>
       </c>
       <c r="O13">
-        <v>7.8770585142355718E-3</v>
+        <v>7.9634478730658247E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3.282289653257337E-3</v>
+        <v>3.0329760314559192E-3</v>
       </c>
       <c r="B14">
-        <v>-8.2521892554898724E-4</v>
+        <v>-1.0475814707318334E-3</v>
       </c>
       <c r="C14">
-        <v>1.1095424619378342E-3</v>
+        <v>1.0634187364773823E-3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1039,16 +1039,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-1.4070767964092488E-2</v>
+        <v>-7.516850070578715E-3</v>
       </c>
       <c r="G14">
-        <v>5.8435484731140304E-4</v>
+        <v>3.6696445853086514E-4</v>
       </c>
       <c r="H14">
-        <v>-1.4001516900741251E-4</v>
+        <v>-1.273797001465425E-4</v>
       </c>
       <c r="I14">
-        <v>4.1895685118549368E-4</v>
+        <v>2.4430289348379905E-4</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1057,27 +1057,27 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>-5.6610396688838716E-4</v>
+        <v>-5.5189870972020599E-4</v>
       </c>
       <c r="M14">
-        <v>9.5769088409676184E-2</v>
+        <v>0.12129394997511142</v>
       </c>
       <c r="N14">
-        <v>6.6719740774780503E-2</v>
+        <v>9.0237996126350362E-2</v>
       </c>
       <c r="O14">
-        <v>7.4873943423913857E-3</v>
+        <v>7.6936738064453418E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.3027222319243787E-3</v>
+        <v>2.1432465008973957E-3</v>
       </c>
       <c r="B15">
-        <v>-5.7856839107218853E-4</v>
+        <v>-7.3686792959654003E-4</v>
       </c>
       <c r="C15">
-        <v>7.7817187636982895E-4</v>
+        <v>7.4922209079007242E-4</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1086,16 +1086,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-1.2364561949940555E-2</v>
+        <v>-6.4579273419341594E-3</v>
       </c>
       <c r="G15">
-        <v>4.1258216015838123E-4</v>
+        <v>2.5569021831027289E-4</v>
       </c>
       <c r="H15">
-        <v>-1.0070076036011733E-4</v>
+        <v>-8.959396838863265E-5</v>
       </c>
       <c r="I15">
-        <v>2.6389605171569147E-4</v>
+        <v>1.5438464493656236E-4</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1104,27 +1104,27 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-4.529701683995999E-4</v>
+        <v>-4.5474296839979276E-4</v>
       </c>
       <c r="M15">
-        <v>8.7894186796115215E-2</v>
+        <v>0.11410134884634161</v>
       </c>
       <c r="N15">
-        <v>6.0641509176183016E-2</v>
+        <v>8.4515841246106629E-2</v>
       </c>
       <c r="O15">
-        <v>7.0353356241195835E-3</v>
+        <v>7.3507720200217145E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.6157173681391221E-3</v>
+        <v>1.5170666753533174E-3</v>
       </c>
       <c r="B16">
-        <v>-4.0569270552919749E-4</v>
+        <v>-5.1921092651497855E-4</v>
       </c>
       <c r="C16">
-        <v>5.4583986873341713E-4</v>
+        <v>5.2882914065727237E-4</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-1.0879402374730581E-2</v>
+        <v>-5.5789939551899332E-3</v>
       </c>
       <c r="G16">
-        <v>2.9073410295152622E-4</v>
+        <v>1.7826282847251549E-4</v>
       </c>
       <c r="H16">
-        <v>-7.1973249442500479E-5</v>
+        <v>-6.2846844671127219E-5</v>
       </c>
       <c r="I16">
-        <v>1.6855495778651653E-4</v>
+        <v>9.9075045672617336E-5</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1151,27 +1151,27 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-3.6646437745754514E-4</v>
+        <v>-3.7965320711444509E-4</v>
       </c>
       <c r="M16">
-        <v>8.0536323615807107E-2</v>
+        <v>0.10724644320474055</v>
       </c>
       <c r="N16">
-        <v>5.516903341125879E-2</v>
+        <v>7.9264602154394764E-2</v>
       </c>
       <c r="O16">
-        <v>6.5563136978144098E-3</v>
+        <v>6.9690426698231075E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.13383141571271E-3</v>
+        <v>1.0755798244917157E-3</v>
       </c>
       <c r="B17">
-        <v>-2.8450947450830988E-4</v>
+        <v>-3.6646235643634687E-4</v>
       </c>
       <c r="C17">
-        <v>3.8292451611845096E-4</v>
+        <v>3.7393180701653236E-4</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-9.5852059323995077E-3</v>
+        <v>-4.8443811352704451E-3</v>
       </c>
       <c r="G17">
-        <v>2.0456110765618461E-4</v>
+        <v>1.2440160596446212E-4</v>
       </c>
       <c r="H17">
-        <v>-5.1198216934315401E-5</v>
+        <v>-4.4017970594034041E-5</v>
       </c>
       <c r="I17">
-        <v>1.0903947803841962E-4</v>
+        <v>6.4449616132275115E-5</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1198,27 +1198,27 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>-2.9905788817025103E-4</v>
+        <v>-3.2050503954596444E-4</v>
       </c>
       <c r="M17">
-        <v>7.3708170796209449E-2</v>
+        <v>0.10075815867759552</v>
       </c>
       <c r="N17">
-        <v>5.0229927742147219E-2</v>
+        <v>7.4427822855163306E-2</v>
       </c>
       <c r="O17">
-        <v>6.0735331561463006E-3</v>
+        <v>6.5712973488421767E-3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7.9577610012967115E-4</v>
+        <v>7.6376962746050724E-4</v>
       </c>
       <c r="B18">
-        <v>-1.9955075243976376E-4</v>
+        <v>-2.5907489803911777E-4</v>
       </c>
       <c r="C18">
-        <v>2.6867011410031734E-4</v>
+        <v>2.6485946484237997E-4</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1227,16 +1227,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-8.456166906824528E-3</v>
+        <v>-4.2264788179295068E-3</v>
       </c>
       <c r="G18">
-        <v>1.4376002700933199E-4</v>
+        <v>8.6922306025336249E-5</v>
       </c>
       <c r="H18">
-        <v>-3.628838471314566E-5</v>
+        <v>-3.0810213173458098E-5</v>
       </c>
       <c r="I18">
-        <v>7.1353669900446157E-5</v>
+        <v>4.2430416070003495E-5</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1245,27 +1245,27 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-2.4570532696034501E-4</v>
+        <v>-2.7314270885140285E-4</v>
       </c>
       <c r="M18">
-        <v>6.7402922667866016E-2</v>
+        <v>9.4646434492845682E-2</v>
       </c>
       <c r="N18">
-        <v>4.5763418653970434E-2</v>
+        <v>6.9959677608854659E-2</v>
       </c>
       <c r="O18">
-        <v>5.6017968574533167E-3</v>
+        <v>6.172489932512599E-3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5.5858936922484033E-4</v>
+        <v>5.4317601789216846E-4</v>
       </c>
       <c r="B19">
-        <v>-1.3998037983792907E-4</v>
+        <v>-1.8344709660457473E-4</v>
       </c>
       <c r="C19">
-        <v>1.8853148426388621E-4</v>
+        <v>1.8791383527422427E-4</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1274,16 +1274,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-7.4701245382898735E-3</v>
+        <v>-3.703703627076256E-3</v>
       </c>
       <c r="G19">
-        <v>1.0093811640774251E-4</v>
+        <v>6.0822878752045795E-5</v>
       </c>
       <c r="H19">
-        <v>-2.5648894624955936E-5</v>
+        <v>-2.1565343732710604E-5</v>
       </c>
       <c r="I19">
-        <v>4.7172120821312477E-5</v>
+        <v>2.8230846928164941E-5</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1292,27 +1292,27 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-2.0293467455896453E-4</v>
+        <v>-2.3467396237305125E-4</v>
       </c>
       <c r="M19">
-        <v>6.1601642835164644E-2</v>
+        <v>8.890886156682655E-2</v>
       </c>
       <c r="N19">
-        <v>4.1717821838272717E-2</v>
+        <v>6.5822246723161948E-2</v>
       </c>
       <c r="O19">
-        <v>5.150167163613285E-3</v>
+        <v>5.7822081283640846E-3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3.9215148293960913E-4</v>
+        <v>3.8686053550386439E-4</v>
       </c>
       <c r="B20">
-        <v>-9.8206036606047269E-5</v>
+        <v>-1.3009637020258257E-4</v>
       </c>
       <c r="C20">
-        <v>1.3231431106802694E-4</v>
+        <v>1.335354854120041E-4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1321,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-6.6080271864456469E-3</v>
+        <v>-3.2590275847088181E-3</v>
       </c>
       <c r="G20">
-        <v>7.0821254580392498E-5</v>
+        <v>4.2628416914909374E-5</v>
       </c>
       <c r="H20">
-        <v>-1.808959647262329E-5</v>
+        <v>-1.5101622747436062E-5</v>
       </c>
       <c r="I20">
-        <v>3.1466407531544061E-5</v>
+        <v>1.8959365670710199E-5</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1339,27 +1339,27 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>-1.6829384606648686E-4</v>
+        <v>-2.0303913442793587E-4</v>
       </c>
       <c r="M20">
-        <v>5.6278258915177098E-2</v>
+        <v>8.353520631143041E-2</v>
       </c>
       <c r="N20">
-        <v>3.8048682436105631E-2</v>
+        <v>6.1983589666363158E-2</v>
       </c>
       <c r="O20">
-        <v>4.723814505661993E-3</v>
+        <v>5.4063853164913467E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2.7534330826707435E-4</v>
+        <v>2.7591900525342439E-4</v>
       </c>
       <c r="B21">
-        <v>-6.8907496702013622E-5</v>
+        <v>-9.2399130459211041E-5</v>
       </c>
       <c r="C21">
-        <v>9.2872732421546265E-5</v>
+        <v>9.5039532746195353E-5</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1368,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-5.853478056307827E-3</v>
+        <v>-2.8789009627988209E-3</v>
       </c>
       <c r="G21">
-        <v>4.9663117229031213E-5</v>
+        <v>2.9927784911185005E-5</v>
       </c>
       <c r="H21">
-        <v>-1.2736658688407134E-5</v>
+        <v>-1.0584075558155595E-5</v>
       </c>
       <c r="I21">
-        <v>2.1153615590000879E-5</v>
+        <v>1.2838299422223619E-5</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1386,27 +1386,27 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>-1.4000764423499005E-4</v>
+        <v>-1.767407208053922E-4</v>
       </c>
       <c r="M21">
-        <v>5.1402925937692467E-2</v>
+        <v>7.8510482829819359E-2</v>
       </c>
       <c r="N21">
-        <v>3.4717388784918583E-2</v>
+        <v>5.8416370206037203E-2</v>
       </c>
       <c r="O21">
-        <v>4.325298705097581E-3</v>
+        <v>5.0484777011367632E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1.9335468697559112E-4</v>
+        <v>1.9706089286292489E-4</v>
       </c>
       <c r="B22">
-        <v>-4.8356191042622479E-5</v>
+        <v>-6.5720190405927761E-5</v>
       </c>
       <c r="C22">
-        <v>6.5197081767806901E-5</v>
+        <v>6.7741863762704117E-5</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-5.1923497059857488E-3</v>
+        <v>-2.5524552900062997E-3</v>
       </c>
       <c r="G22">
-        <v>3.4811464545845025E-5</v>
+        <v>2.1048645852058838E-5</v>
       </c>
       <c r="H22">
-        <v>-8.9558888913821022E-6</v>
+        <v>-7.4261121082952463E-6</v>
       </c>
       <c r="I22">
-        <v>1.4315939634887728E-5</v>
+        <v>8.7571975569763637E-6</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1433,27 +1433,27 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>-1.1676091885163646E-4</v>
+        <v>-1.5466939235846537E-4</v>
       </c>
       <c r="M22">
-        <v>4.6944261247110992E-2</v>
+        <v>7.3817027866451751E-2</v>
       </c>
       <c r="N22">
-        <v>3.1690125972583492E-2</v>
+        <v>5.5096865427496949E-2</v>
       </c>
       <c r="O22">
-        <v>3.955454599328969E-3</v>
+        <v>4.7102741052601092E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.357983319064794E-4</v>
+        <v>1.4092558883693065E-4</v>
       </c>
       <c r="B23">
-        <v>-3.3938689360018477E-5</v>
+        <v>-4.6809952806666938E-5</v>
       </c>
       <c r="C23">
-        <v>4.5774823542306851E-5</v>
+        <v>4.8353894919478233E-5</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1462,16 +1462,16 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-4.6124566051950044E-3</v>
+        <v>-2.2709076536281785E-3</v>
       </c>
       <c r="G23">
-        <v>2.439345171322148E-5</v>
+        <v>1.4830865457167165E-5</v>
       </c>
       <c r="H23">
-        <v>-6.2909081336190752E-6</v>
+        <v>-5.2171843044742805E-6</v>
       </c>
       <c r="I23">
-        <v>9.7436467300833964E-6</v>
+        <v>6.0122878687548669E-6</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1480,27 +1480,27 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-9.7558725056327386E-5</v>
+        <v>-1.3598941538380023E-4</v>
       </c>
       <c r="M23">
-        <v>4.2870801434858996E-2</v>
+        <v>6.943589059065676E-2</v>
       </c>
       <c r="N23">
-        <v>2.8937074802452709E-2</v>
+        <v>5.2004243041676959E-2</v>
       </c>
       <c r="O23">
-        <v>3.6140018651435457E-3</v>
+        <v>4.3924529364734203E-3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>9.5388002954326862E-5</v>
+        <v>1.009088986752119E-4</v>
       </c>
       <c r="B24">
-        <v>-2.3822945851052307E-5</v>
+        <v>-3.3386179719278042E-5</v>
       </c>
       <c r="C24">
-        <v>3.2142810093159659E-5</v>
+        <v>3.4562424013335123E-5</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1509,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-4.1032767289503952E-3</v>
+        <v>-2.0271111472782042E-3</v>
       </c>
       <c r="G24">
-        <v>1.7089236580922515E-5</v>
+        <v>1.0469114526762295E-5</v>
       </c>
       <c r="H24">
-        <v>-4.4153751527467279E-6</v>
+        <v>-3.6706258855865947E-6</v>
       </c>
       <c r="I24">
-        <v>6.6635835622842604E-6</v>
+        <v>4.1516523957429993E-6</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1527,27 +1527,27 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>-8.1634264606192072E-5</v>
+        <v>-1.2006153764151722E-4</v>
       </c>
       <c r="M24">
-        <v>3.9151925408805882E-2</v>
+        <v>6.5347751898773537E-2</v>
       </c>
       <c r="N24">
-        <v>2.643178934842318E-2</v>
+        <v>4.9120027277511767E-2</v>
       </c>
       <c r="O24">
-        <v>3.2999628170226245E-3</v>
+        <v>4.0949648803225167E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6.7012018552266753E-5</v>
+        <v>7.2343512454002838E-5</v>
       </c>
       <c r="B25">
-        <v>-1.67245066855442E-5</v>
+        <v>-2.3843254554969384E-5</v>
       </c>
       <c r="C25">
-        <v>2.2573541441978711E-5</v>
+        <v>2.4737341817954015E-5</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1556,16 +1556,16 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-3.6557146066676987E-3</v>
+        <v>-1.8152124891474709E-3</v>
       </c>
       <c r="G25">
-        <v>1.197014177923962E-5</v>
+        <v>7.4038003426395759E-6</v>
       </c>
       <c r="H25">
-        <v>-3.0970565299795162E-6</v>
+        <v>-2.5865314947562787E-6</v>
       </c>
       <c r="I25">
-        <v>4.5755831167529039E-6</v>
+        <v>2.8816367785473267E-6</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1574,27 +1574,27 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>-6.8386993885369599E-5</v>
+        <v>-1.0639003427042937E-4</v>
       </c>
       <c r="M25">
-        <v>3.5758413366798733E-2</v>
+        <v>6.1533521119769737E-2</v>
       </c>
       <c r="N25">
-        <v>2.415070564690712E-2</v>
+        <v>4.6427698216111479E-2</v>
       </c>
       <c r="O25">
-        <v>3.0119467035315231E-3</v>
+        <v>3.8172953147409209E-3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4.7083777048823665E-5</v>
+        <v>5.1925570649270345E-5</v>
       </c>
       <c r="B26">
-        <v>-1.1742718867576349E-5</v>
+        <v>-1.7049682561915651E-5</v>
       </c>
       <c r="C26">
-        <v>1.5855293831240009E-5</v>
+        <v>1.7727865908320366E-5</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-3.2618994494600681E-3</v>
+        <v>-1.6303889850932203E-3</v>
       </c>
       <c r="G26">
-        <v>8.3835196619006259E-6</v>
+        <v>5.2455896341089112E-6</v>
       </c>
       <c r="H26">
-        <v>-2.1712991172139084E-6</v>
+        <v>-1.8255707128906577E-6</v>
       </c>
       <c r="I26">
-        <v>3.1524764750878731E-6</v>
+        <v>2.0093726460508015E-6</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1621,27 +1621,27 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>-5.7340112767768745E-5</v>
+        <v>-9.4585663424076678E-5</v>
       </c>
       <c r="M26">
-        <v>3.2662759531901994E-2</v>
+        <v>5.7974712104130535E-2</v>
       </c>
       <c r="N26">
-        <v>2.2072747693411696E-2</v>
+        <v>4.3912386278199649E-2</v>
       </c>
       <c r="O26">
-        <v>2.748341367532017E-3</v>
+        <v>3.5586436305573743E-3</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3.3086403718290353E-5</v>
+        <v>3.7312668610310114E-5</v>
       </c>
       <c r="B27">
-        <v>-8.2459660053120966E-6</v>
+        <v>-1.2206783129450338E-5</v>
       </c>
       <c r="C27">
-        <v>1.1138011844121406E-5</v>
+        <v>1.2720195360108758E-5</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1650,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-2.9150129861840427E-3</v>
+        <v>-1.468644775138375E-3</v>
       </c>
       <c r="G27">
-        <v>5.8711442652385299E-6</v>
+        <v>3.7232063646230884E-6</v>
       </c>
       <c r="H27">
-        <v>-1.5216981607187503E-6</v>
+        <v>-1.2906260149604863E-6</v>
       </c>
       <c r="I27">
-        <v>2.1781186796656883E-6</v>
+        <v>1.4069589565554201E-6</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1668,27 +1668,27 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-4.8110729346881628E-5</v>
+        <v>-8.4339306530223371E-5</v>
       </c>
       <c r="M27">
-        <v>2.9839320277975177E-2</v>
+        <v>5.465366907181618E-2</v>
       </c>
       <c r="N27">
-        <v>2.0179006505568961E-2</v>
+        <v>4.1560635171414256E-2</v>
       </c>
       <c r="O27">
-        <v>2.5074407903982248E-3</v>
+        <v>3.3180451144155035E-3</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2.3253457230063309E-5</v>
+        <v>2.6841526875498138E-5</v>
       </c>
       <c r="B28">
-        <v>-5.7912455302523552E-6</v>
+        <v>-8.7499005042536643E-6</v>
       </c>
       <c r="C28">
-        <v>7.8252799110062951E-6</v>
+        <v>9.1378733746307265E-6</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-2.6091424838440725E-3</v>
+        <v>-1.3266517628412698E-3</v>
       </c>
       <c r="G28">
-        <v>4.1115319403169552E-6</v>
+        <v>2.6473250488498073E-6</v>
       </c>
       <c r="H28">
-        <v>-1.0661426066673997E-6</v>
+        <v>-9.1396829127827448E-7</v>
       </c>
       <c r="I28">
-        <v>1.5084512877374913E-6</v>
+        <v>9.8883825928882822E-7</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1715,27 +1715,27 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-4.0388468875286585E-5</v>
+        <v>-7.5402916533267976E-5</v>
       </c>
       <c r="M28">
-        <v>2.7264354006473375E-2</v>
+        <v>5.1553690799659324E-2</v>
       </c>
       <c r="N28">
-        <v>1.8452474785504991E-2</v>
+        <v>3.9360214602976736E-2</v>
       </c>
       <c r="O28">
-        <v>2.2875284096777562E-3</v>
+        <v>3.0944531264716726E-3</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1.6345010765404942E-5</v>
+        <v>1.9329350718470447E-5</v>
       </c>
       <c r="B29">
-        <v>-4.0678038825681107E-6</v>
+        <v>-6.2792146168342915E-6</v>
       </c>
       <c r="C29">
-        <v>5.4985850903947293E-6</v>
+        <v>6.5719083095716609E-6</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1744,16 +1744,16 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-2.3391551370147948E-3</v>
+        <v>-1.2016245048214916E-3</v>
       </c>
       <c r="G29">
-        <v>2.8792646576958347E-6</v>
+        <v>1.8855835895794013E-6</v>
       </c>
       <c r="H29">
-        <v>-7.468130356840735E-7</v>
+        <v>-6.4832278214252023E-7</v>
       </c>
       <c r="I29">
-        <v>1.0467196387728726E-6</v>
+        <v>6.9732932786654399E-7</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1762,27 +1762,27 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>-3.3919815326219657E-5</v>
+        <v>-6.7575549975356397E-5</v>
       </c>
       <c r="M29">
-        <v>2.4915991528661072E-2</v>
+        <v>4.8659086674135432E-2</v>
       </c>
       <c r="N29">
-        <v>1.6877824504646182E-2</v>
+        <v>3.7299969597281421E-2</v>
       </c>
       <c r="O29">
-        <v>2.0869300669417354E-3</v>
+        <v>2.8867938473544769E-3</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1.1490597628899874E-5</v>
+        <v>1.3933828672056313E-5</v>
       </c>
       <c r="B30">
-        <v>-2.8576277297058064E-6</v>
+        <v>-4.5111974398220106E-6</v>
       </c>
       <c r="C30">
-        <v>3.8642117475161536E-6</v>
+        <v>4.7316724643093568E-6</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1791,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-2.1005906062673829E-3</v>
+        <v>-1.0912211170331096E-3</v>
       </c>
       <c r="G30">
-        <v>2.0163535379024033E-6</v>
+        <v>1.3452756405797826E-6</v>
       </c>
       <c r="H30">
-        <v>-5.2305101664071626E-7</v>
+        <v>-4.6065449663679205E-7</v>
       </c>
       <c r="I30">
-        <v>7.2750646056150995E-7</v>
+        <v>4.9327019726153052E-7</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1809,27 +1809,27 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-2.8496420991502231E-5</v>
+        <v>-6.0692991378655012E-5</v>
       </c>
       <c r="M30">
-        <v>2.2774163454004008E-2</v>
+        <v>4.5955187722937905E-2</v>
       </c>
       <c r="N30">
-        <v>1.5441218133036456E-2</v>
+        <v>3.5369697098612179E-2</v>
       </c>
       <c r="O30">
-        <v>1.9040462269147821E-3</v>
+        <v>2.6940021019973637E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>8.0790400038215851E-6</v>
+        <v>1.0054293355582341E-5</v>
       </c>
       <c r="B31">
-        <v>-2.0077467705973775E-6</v>
+        <v>-3.244495760143597E-6</v>
       </c>
       <c r="C31">
-        <v>2.7160002864697517E-6</v>
+        <v>3.4103371545520949E-6</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1838,16 +1838,16 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-1.8895689857656255E-3</v>
+        <v>-9.9346426418961626E-4</v>
       </c>
       <c r="G31">
-        <v>1.4121059974053157E-6</v>
+        <v>9.6134799838815905E-7</v>
       </c>
       <c r="H31">
-        <v>-3.6629641220198295E-7</v>
+        <v>-3.2784827839019543E-7</v>
       </c>
       <c r="I31">
-        <v>5.0632955190933589E-7</v>
+        <v>3.4990344788012249E-7</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1856,27 +1856,27 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-2.3946217428806439E-5</v>
+        <v>-5.4619952765745544E-5</v>
       </c>
       <c r="M31">
-        <v>2.082050257150277E-2</v>
+        <v>4.3428328528825173E-2</v>
       </c>
       <c r="N31">
-        <v>1.4130146655927329E-2</v>
+        <v>3.3560043213650886E-2</v>
       </c>
       <c r="O31">
-        <v>1.737370164136936E-3</v>
+        <v>2.5150441631624399E-3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5.6811550318928523E-6</v>
+        <v>7.2618282675256702E-6</v>
       </c>
       <c r="B32">
-        <v>-1.4108143877034074E-6</v>
+        <v>-2.3359128219583146E-6</v>
       </c>
       <c r="C32">
-        <v>1.9092274194572787E-6</v>
+        <v>2.4604972662174114E-6</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1885,16 +1885,16 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-1.7027119007269856E-3</v>
+        <v>-9.066777646185287E-4</v>
       </c>
       <c r="G32">
-        <v>9.8898635297266997E-7</v>
+        <v>6.8806517201647215E-7</v>
       </c>
       <c r="H32">
-        <v>-2.5650433579629509E-7</v>
+        <v>-2.3370610485169101E-7</v>
       </c>
       <c r="I32">
-        <v>3.5279528613300454E-7</v>
+        <v>2.488423912578546E-7</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1903,27 +1903,27 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>-2.0126543583742773E-5</v>
+        <v>-4.9244143750585753E-5</v>
       </c>
       <c r="M32">
-        <v>1.9038233307624306E-2</v>
+        <v>4.1065810932703804E-2</v>
       </c>
       <c r="N32">
-        <v>1.2933289252152159E-2</v>
+        <v>3.1862416317752114E-2</v>
       </c>
       <c r="O32">
-        <v>1.5854967573240379E-3</v>
+        <v>2.3489316329901046E-3</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3.995519597658574E-6</v>
+        <v>5.2497651705816852E-6</v>
       </c>
       <c r="B33">
-        <v>-9.914903700774463E-7</v>
+        <v>-1.6834718957752554E-6</v>
       </c>
       <c r="C33">
-        <v>1.3422842534693835E-6</v>
+        <v>1.7769518192979814E-6</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-1.5370747892605174E-3</v>
+        <v>-8.2943542080460286E-4</v>
       </c>
       <c r="G33">
-        <v>6.9269388484431238E-7</v>
+        <v>4.9321149372553006E-7</v>
       </c>
       <c r="H33">
-        <v>-1.7961558997544222E-7</v>
+        <v>-1.668591240021135E-7</v>
       </c>
       <c r="I33">
-        <v>2.4605131607488869E-7</v>
+        <v>1.773870604138139E-7</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1950,27 +1950,27 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>-1.6918754905115296E-5</v>
+        <v>-4.4471717055141191E-5</v>
       </c>
       <c r="M33">
-        <v>1.7412056263190732E-2</v>
+        <v>3.8855856968815876E-2</v>
       </c>
       <c r="N33">
-        <v>1.1840390754490029E-2</v>
+        <v>3.0268912560955021E-2</v>
       </c>
       <c r="O33">
-        <v>1.4471250970081481E-3</v>
+        <v>2.1947292487486366E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2.8104096578705927E-6</v>
+        <v>3.7985695722619895E-6</v>
       </c>
       <c r="B34">
-        <v>-6.9689092842119112E-7</v>
+        <v>-1.2144546498519101E-6</v>
       </c>
       <c r="C34">
-        <v>9.4382250885131447E-7</v>
+        <v>1.2845193861199534E-6</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-1.3900887210013997E-3</v>
+        <v>-7.6051948490066831E-4</v>
       </c>
       <c r="G34">
-        <v>4.8520488089071671E-7</v>
+        <v>3.5405133873313487E-7</v>
       </c>
       <c r="H34">
-        <v>-1.2577430807341688E-7</v>
+        <v>-1.1931464230492088E-7</v>
       </c>
       <c r="I34">
-        <v>1.7174205992528022E-7</v>
+        <v>1.2672434481838682E-7</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1997,27 +1997,27 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>-1.4223940258529923E-5</v>
+        <v>-4.0223736801302375E-5</v>
       </c>
       <c r="M34">
-        <v>1.5928033020402639E-2</v>
+        <v>3.6787556073347903E-2</v>
       </c>
       <c r="N34">
-        <v>1.0842153914226486E-2</v>
+        <v>2.877225123485911E-2</v>
       </c>
       <c r="O34">
-        <v>1.321057112000337E-3</v>
+        <v>2.0515585887501265E-3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1.9770867548550718E-6</v>
+        <v>2.7508954011372972E-6</v>
       </c>
       <c r="B35">
-        <v>-4.8989028092163681E-7</v>
+        <v>-8.7694000064634074E-7</v>
       </c>
       <c r="C35">
-        <v>6.6373571289135569E-7</v>
+        <v>9.2940226796908321E-7</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-1.2595103559831819E-3</v>
+        <v>-6.9888676524397628E-4</v>
       </c>
       <c r="G35">
-        <v>3.3989567090516221E-7</v>
+        <v>2.5450923144162576E-7</v>
       </c>
       <c r="H35">
-        <v>-8.8073998217986911E-8</v>
+        <v>-8.5443904251438134E-8</v>
       </c>
       <c r="I35">
-        <v>1.1995604937759592E-7</v>
+        <v>9.0712443505986636E-8</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2044,27 +2044,27 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-1.1959482088301035E-5</v>
+        <v>-3.6433415296931293E-5</v>
       </c>
       <c r="M35">
-        <v>1.4573474484506336E-2</v>
+        <v>3.4850809943971703E-2</v>
       </c>
       <c r="N35">
-        <v>9.9301441504065311E-3</v>
+        <v>2.7365718117365552E-2</v>
       </c>
       <c r="O35">
-        <v>1.2061937239397635E-3</v>
+        <v>1.9185990488435215E-3</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1.3910461778380661E-6</v>
+        <v>1.993838447617183E-6</v>
       </c>
       <c r="B36">
-        <v>-3.4442173092576036E-7</v>
+        <v>-6.3381006796449563E-7</v>
       </c>
       <c r="C36">
-        <v>4.6683034289464311E-7</v>
+        <v>6.7305629355640664E-7</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-1.143378858871052E-3</v>
+        <v>-6.4364082887553007E-4</v>
       </c>
       <c r="G36">
-        <v>2.3812557607231591E-7</v>
+        <v>1.8319777060999648E-7</v>
       </c>
       <c r="H36">
-        <v>-6.167639561417539E-8</v>
+        <v>-6.1276042094826628E-8</v>
       </c>
       <c r="I36">
-        <v>8.3833644600369198E-8</v>
+        <v>6.5054644213167834E-8</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2091,27 +2091,27 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>-1.0056268785659425E-5</v>
+        <v>-3.3043932863196753E-5</v>
       </c>
       <c r="M36">
-        <v>1.3336834712992173E-2</v>
+        <v>3.3036277276834725E-2</v>
       </c>
       <c r="N36">
-        <v>9.0967049491607541E-3</v>
+        <v>2.604311538010845E-2</v>
       </c>
       <c r="O36">
-        <v>1.1015295551826368E-3</v>
+        <v>1.7950870380570841E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9.7885210057244472E-7</v>
+        <v>1.4462936309441891E-6</v>
       </c>
       <c r="B37">
-        <v>-2.4218095131780774E-7</v>
+        <v>-4.5849768554674849E-7</v>
       </c>
       <c r="C37">
-        <v>3.283840187982988E-7</v>
+        <v>4.8783268716410893E-7</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2120,16 +2120,16 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-1.0399787623273833E-3</v>
+        <v>-5.9400909519967014E-4</v>
       </c>
       <c r="G37">
-        <v>1.6684344381376644E-7</v>
+        <v>1.3203582222866472E-7</v>
       </c>
       <c r="H37">
-        <v>-4.319286901600784E-8</v>
+        <v>-4.4004875221809976E-8</v>
       </c>
       <c r="I37">
-        <v>5.8617791022354105E-8</v>
+        <v>4.6734441701319032E-8</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2138,27 +2138,27 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>-8.4564187414389504E-6</v>
+        <v>-3.0006704014420295E-5</v>
       </c>
       <c r="M37">
-        <v>1.2207611300429293E-2</v>
+        <v>3.1335319813302676E-2</v>
       </c>
       <c r="N37">
-        <v>8.334882439461665E-3</v>
+        <v>2.4798716979453489E-2</v>
       </c>
       <c r="O37">
-        <v>1.0061468795405186E-3</v>
+        <v>1.6803140478821367E-3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6.8889383528533995E-7</v>
+        <v>1.0499361881225308E-6</v>
       </c>
       <c r="B38">
-        <v>-1.703127388933782E-7</v>
+        <v>-3.3196519395277999E-7</v>
       </c>
       <c r="C38">
-        <v>2.3102767375703257E-7</v>
+        <v>3.5387523923814864E-7</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2167,16 +2167,16 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-9.4780792417509252E-4</v>
+        <v>-5.4932387536170185E-4</v>
       </c>
       <c r="G38">
-        <v>1.1691150974484859E-7</v>
+        <v>9.5278424882470705E-8</v>
       </c>
       <c r="H38">
-        <v>-3.0250469814271007E-8</v>
+        <v>-3.1643851451696695E-8</v>
       </c>
       <c r="I38">
-        <v>4.1004000343273596E-8</v>
+        <v>3.3627274972834541E-8</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2185,27 +2185,27 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>-7.1114108614785581E-6</v>
+        <v>-2.7279988252810431E-5</v>
       </c>
       <c r="M38">
-        <v>1.1176252797718242E-2</v>
+        <v>2.9739950582888131E-2</v>
       </c>
       <c r="N38">
-        <v>7.6383579436565818E-3</v>
+        <v>2.3627228695305858E-2</v>
       </c>
       <c r="O38">
-        <v>9.1920927312618946E-4</v>
+        <v>1.5736240445969132E-3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4.8489442331748711E-7</v>
+        <v>7.6277969504775663E-7</v>
       </c>
       <c r="B39">
-        <v>-1.1978763780895463E-7</v>
+        <v>-2.4055505985355807E-7</v>
       </c>
       <c r="C39">
-        <v>1.6255676808333655E-7</v>
+        <v>2.5690810262141946E-7</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-8.6554985058470398E-4</v>
+        <v>-5.0900661109578649E-4</v>
       </c>
       <c r="G39">
-        <v>8.1931781470423459E-8</v>
+        <v>6.8834412742445136E-8</v>
       </c>
       <c r="H39">
-        <v>-2.1187686161106001E-8</v>
+        <v>-2.2784232226616805E-8</v>
       </c>
       <c r="I39">
-        <v>2.8693586994076192E-8</v>
+        <v>2.4232366649786945E-8</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2232,27 +2232,27 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-5.9805414151391385E-6</v>
+        <v>-2.4827769061359637E-5</v>
       </c>
       <c r="M39">
-        <v>1.0234073259027983E-2</v>
+        <v>2.8242784855825289E-2</v>
       </c>
       <c r="N39">
-        <v>7.0013875087986711E-3</v>
+        <v>2.2523752159860522E-2</v>
       </c>
       <c r="O39">
-        <v>8.3995526250307817E-4</v>
+        <v>1.4744104910113284E-3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3.4135142848137593E-7</v>
+        <v>5.5456892165509483E-7</v>
       </c>
       <c r="B40">
-        <v>-8.4262546569865052E-8</v>
+        <v>-1.744587044987573E-7</v>
       </c>
       <c r="C40">
-        <v>1.1439450619481977E-7</v>
+        <v>1.86656435031526E-7</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2261,16 +2261,16 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-7.9204976543464001E-4</v>
+        <v>-4.725547206614625E-4</v>
       </c>
       <c r="G40">
-        <v>5.7424369580437606E-8</v>
+        <v>4.9785493787852483E-8</v>
       </c>
       <c r="H40">
-        <v>-1.4841229806834061E-8</v>
+        <v>-1.6425338710427237E-8</v>
       </c>
       <c r="I40">
-        <v>2.0085648261897799E-8</v>
+        <v>1.7486693587111445E-8</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2279,27 +2279,27 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>-5.0296452404927393E-6</v>
+        <v>-2.2618843206114418E-5</v>
       </c>
       <c r="M40">
-        <v>9.3731737641306045E-3</v>
+        <v>2.683699406608905E-2</v>
       </c>
       <c r="N40">
-        <v>6.4187475856530346E-3</v>
+        <v>2.1483752349842736E-2</v>
       </c>
       <c r="O40">
-        <v>7.6769215755752144E-4</v>
+        <v>1.3821132043519409E-3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2.4033436527324011E-7</v>
+        <v>4.0348093823171028E-7</v>
       </c>
       <c r="B41">
-        <v>-5.9280910316397396E-8</v>
+        <v>-1.2662432349906463E-7</v>
       </c>
       <c r="C41">
-        <v>8.0512690218507529E-8</v>
+        <v>1.3571737569582712E-7</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2308,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-7.2629389739000316E-4</v>
+        <v>-4.3953057906983656E-4</v>
       </c>
       <c r="G41">
-        <v>4.0252258736038648E-8</v>
+        <v>3.6046661124571653E-8</v>
       </c>
       <c r="H41">
-        <v>-1.0396669297079658E-8</v>
+        <v>-1.1855174828807285E-8</v>
       </c>
       <c r="I41">
-        <v>1.4064147938845176E-8</v>
+        <v>1.2635412228892814E-8</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2326,27 +2326,27 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>-4.2300326951060103E-6</v>
+        <v>-2.0626076142075916E-5</v>
       </c>
       <c r="M41">
-        <v>8.5863706138108575E-3</v>
+        <v>2.55162627966278E-2</v>
       </c>
       <c r="N41">
-        <v>5.8856861487243915E-3</v>
+        <v>2.0503028114031579E-2</v>
       </c>
       <c r="O41">
-        <v>7.0179018172573785E-4</v>
+        <v>1.29621518766053E-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1.692347743300873E-7</v>
+        <v>2.9376022621287386E-7</v>
       </c>
       <c r="B42">
-        <v>-4.1711215241028533E-8</v>
+        <v>-9.1976863481375252E-8</v>
       </c>
       <c r="C42">
-        <v>5.6673829869809587E-8</v>
+        <v>9.8751932049445655E-8</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2355,16 +2355,16 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-6.6739153370764463E-4</v>
+        <v>-4.0955225327768933E-4</v>
       </c>
       <c r="G42">
-        <v>2.8218618108866167E-8</v>
+        <v>2.6125951346449888E-8</v>
       </c>
       <c r="H42">
-        <v>-7.2838183015930564E-9</v>
+        <v>-8.566328023595915E-9</v>
       </c>
       <c r="I42">
-        <v>9.8504184130475564E-9</v>
+        <v>9.1412716697801337E-9</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2373,27 +2373,27 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>-3.557603754311689E-6</v>
+        <v>-1.8825789510160516E-5</v>
       </c>
       <c r="M42">
-        <v>7.8671298106541207E-3</v>
+        <v>2.4274748807569684E-2</v>
       </c>
       <c r="N42">
-        <v>5.3978786516108808E-3</v>
+        <v>1.9577685382279646E-2</v>
       </c>
       <c r="O42">
-        <v>6.4167696170712592E-4</v>
+        <v>1.2162395239479608E-3</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1.1918535201981149E-7</v>
+        <v>2.1402144345904008E-7</v>
       </c>
       <c r="B43">
-        <v>-2.9352730277240923E-8</v>
+        <v>-6.6860262500911821E-8</v>
       </c>
       <c r="C43">
-        <v>3.9898799690056087E-8</v>
+        <v>7.1905859334110902E-8</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-6.1455945549337358E-4</v>
+        <v>-3.822856865081522E-4</v>
       </c>
       <c r="G43">
-        <v>1.9784898460291817E-8</v>
+        <v>1.8954173483441495E-8</v>
       </c>
       <c r="H43">
-        <v>-5.1034830990855556E-9</v>
+        <v>-6.196617008402683E-9</v>
       </c>
       <c r="I43">
-        <v>6.9007951451914726E-9</v>
+        <v>6.621068124244646E-9</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2420,27 +2420,27 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>-2.9921082836392721E-6</v>
+        <v>-1.7197254366989919E-5</v>
       </c>
       <c r="M43">
-        <v>7.2095073954141125E-3</v>
+        <v>2.3107046017272887E-2</v>
       </c>
       <c r="N43">
-        <v>4.9513882938049631E-3</v>
+        <v>1.8704112759426298E-2</v>
       </c>
       <c r="O43">
-        <v>5.8683240512057296E-4</v>
+        <v>1.1417463890648152E-3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8.3949026495765282E-8</v>
+        <v>1.560300276467633E-7</v>
       </c>
       <c r="B44">
-        <v>-2.0658644924361386E-8</v>
+        <v>-4.8638152865582946E-8</v>
       </c>
       <c r="C44">
-        <v>2.809287143036422E-8</v>
+        <v>5.2394157753963911E-8</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-5.6710842493989326E-4</v>
+        <v>-3.5743808392909833E-4</v>
       </c>
       <c r="G44">
-        <v>1.3873483177088511E-8</v>
+        <v>1.3764013123537414E-8</v>
       </c>
       <c r="H44">
-        <v>-3.5761754360288638E-9</v>
+        <v>-4.4871304743272182E-9</v>
       </c>
       <c r="I44">
-        <v>4.8354655773291064E-9</v>
+        <v>4.8009288119591332E-9</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2467,27 +2467,27 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>-2.516527406780532E-6</v>
+        <v>-1.5722269581698154E-5</v>
       </c>
       <c r="M44">
-        <v>6.6080951955667837E-3</v>
+        <v>2.2008150302823225E-2</v>
       </c>
       <c r="N44">
-        <v>4.5426301423286469E-3</v>
+        <v>1.7878959252110773E-2</v>
       </c>
       <c r="O44">
-        <v>5.3678397249403342E-4</v>
+        <v>1.0723302163686446E-3</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5.9138173148633022E-8</v>
+        <v>1.1382518703774633E-7</v>
       </c>
       <c r="B45">
-        <v>-1.4541620531173372E-8</v>
+        <v>-3.5407680754685953E-8</v>
       </c>
       <c r="C45">
-        <v>1.9782968066175656E-8</v>
+        <v>3.8202623922702269E-8</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-5.244314425054933E-4</v>
+        <v>-3.3475229805314858E-4</v>
       </c>
       <c r="G45">
-        <v>9.7295263944295768E-9</v>
+        <v>1.0004044319928644E-8</v>
       </c>
       <c r="H45">
-        <v>-2.5062078646954768E-9</v>
+        <v>-3.252509041936794E-9</v>
       </c>
       <c r="I45">
-        <v>3.388950897686982E-9</v>
+        <v>3.4847551092350873E-9</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2514,27 +2514,27 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>-2.1165555127927108E-6</v>
+        <v>-1.4384809247980357E-5</v>
       </c>
       <c r="M45">
-        <v>6.0579715473972028E-3</v>
+        <v>2.0973427962188679E-2</v>
       </c>
       <c r="N45">
-        <v>4.1683387076440299E-3</v>
+        <v>1.7099113911843267E-2</v>
       </c>
       <c r="O45">
-        <v>4.9110233589198956E-4</v>
+        <v>1.0076170306630677E-3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4.1665783786134135E-8</v>
+        <v>8.3088501417551337E-8</v>
       </c>
       <c r="B46">
-        <v>-1.023720519466309E-8</v>
+        <v>-2.5794171675411599E-8</v>
       </c>
       <c r="C46">
-        <v>1.3933036218599032E-8</v>
+        <v>2.7873246842042527E-8</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2543,16 +2543,16 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-4.8599353234385974E-4</v>
+        <v>-3.1400204905514809E-4</v>
       </c>
       <c r="G46">
-        <v>6.8242229891682076E-9</v>
+        <v>7.2774666559638492E-9</v>
       </c>
       <c r="H46">
-        <v>-1.7565595644697396E-9</v>
+        <v>-2.359862071786369E-9</v>
       </c>
       <c r="I46">
-        <v>2.3756064707984117E-9</v>
+        <v>2.5318926796405859E-9</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2561,27 +2561,27 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>-1.7801661126057609E-6</v>
+        <v>-1.3170726347172059E-5</v>
       </c>
       <c r="M46">
-        <v>5.5546565691055498E-3</v>
+        <v>1.9998586668631187E-2</v>
       </c>
       <c r="N46">
-        <v>3.8255386205645983E-3</v>
+        <v>1.6361687206147165E-2</v>
       </c>
       <c r="O46">
-        <v>4.4939740784495489E-4</v>
+        <v>9.4726195836590272E-4</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2.9359629246291281E-8</v>
+        <v>6.0688902935471641E-8</v>
       </c>
       <c r="B47">
-        <v>-7.2078810204385171E-9</v>
+        <v>-1.8803644959827385E-8</v>
       </c>
       <c r="C47">
-        <v>9.8142938652500006E-9</v>
+        <v>2.0349731197276201E-8</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2590,16 +2590,16 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-4.5132284866025409E-4</v>
+        <v>-2.9498784474835875E-4</v>
       </c>
       <c r="G47">
-        <v>4.7870811635696162E-9</v>
+        <v>5.2983868251540601E-9</v>
       </c>
       <c r="H47">
-        <v>-1.2312816630475096E-9</v>
+        <v>-1.7137852261127154E-9</v>
       </c>
       <c r="I47">
-        <v>1.6655645936521542E-9</v>
+        <v>1.8412917920532632E-9</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2608,27 +2608,27 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>-1.4972476970958542E-6</v>
+        <v>-1.2067502513894672E-5</v>
       </c>
       <c r="M47">
-        <v>5.0940715852274927E-3</v>
+        <v>1.9079648744888766E-2</v>
       </c>
       <c r="N47">
-        <v>3.5115180972202045E-3</v>
+        <v>1.5663993952852034E-2</v>
       </c>
       <c r="O47">
-        <v>4.1131471930197814E-4</v>
+        <v>8.9094691389524907E-4</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2.0690971393023794E-8</v>
+        <v>4.4354454204713941E-8</v>
       </c>
       <c r="B48">
-        <v>-5.075646730073263E-9</v>
+        <v>-1.3716769949402772E-8</v>
       </c>
       <c r="C48">
-        <v>6.914030631972107E-9</v>
+        <v>1.4866188921150832E-8</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2637,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-4.2000292496063851E-4</v>
+        <v>-2.7753348877158034E-4</v>
       </c>
       <c r="G48">
-        <v>3.3584982572776312E-9</v>
+        <v>3.8605712430036679E-9</v>
       </c>
       <c r="H48">
-        <v>-8.6318073059625056E-10</v>
+        <v>-1.2456959846180687E-9</v>
       </c>
       <c r="I48">
-        <v>1.167945573588014E-9</v>
+        <v>1.3402453305896448E-9</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2655,27 +2655,27 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>-1.2592981279979654E-6</v>
+        <v>-1.1064035788790022E-5</v>
       </c>
       <c r="M48">
-        <v>4.6725023289788297E-3</v>
+        <v>1.8212926587127788E-2</v>
       </c>
       <c r="N48">
-        <v>3.2238049138446018E-3</v>
+        <v>1.5003537671917399E-2</v>
       </c>
       <c r="O48">
-        <v>3.7653212285073306E-4</v>
+        <v>8.3837845776198096E-4</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1.4583791150022149E-8</v>
+        <v>3.2435372668361748E-8</v>
       </c>
       <c r="B49">
-        <v>-3.5746432604079183E-9</v>
+        <v>-1.0012542167433684E-8</v>
       </c>
       <c r="C49">
-        <v>4.8714972364669347E-9</v>
+        <v>1.0866856905116557E-8</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-3.9166591315596227E-4</v>
+        <v>-2.6148308481306907E-4</v>
       </c>
       <c r="G49">
-        <v>2.3565511270757296E-9</v>
+        <v>2.8150782942810387E-9</v>
       </c>
       <c r="H49">
-        <v>-6.051970282941157E-10</v>
+        <v>-9.0623052205275811E-10</v>
       </c>
       <c r="I49">
-        <v>8.1913411239161371E-10</v>
+        <v>9.7636469004973892E-10</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2702,27 +2702,27 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>-1.0591680333966242E-6</v>
+        <v>-1.0150459831914332E-5</v>
       </c>
       <c r="M49">
-        <v>4.286565576849366E-3</v>
+        <v>1.7395000074672692E-2</v>
       </c>
       <c r="N49">
-        <v>2.9601446432881797E-3</v>
+        <v>1.4377996225402307E-2</v>
       </c>
       <c r="O49">
-        <v>3.4475679661161163E-4</v>
+        <v>7.8928581906657035E-4</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1.0280616863984132E-8</v>
+        <v>2.3732782379326521E-8</v>
       </c>
       <c r="B50">
-        <v>-2.5178597786970318E-9</v>
+        <v>-7.3132968205134673E-9</v>
       </c>
       <c r="C50">
-        <v>3.4328317040828913E-9</v>
+        <v>7.9481381159191807E-9</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2731,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-3.6598668083099369E-4</v>
+        <v>-2.4669846036391756E-4</v>
       </c>
       <c r="G50">
-        <v>1.6537376653265785E-9</v>
+        <v>2.0542237695002948E-9</v>
       </c>
       <c r="H50">
-        <v>-4.243687685207615E-10</v>
+        <v>-6.5981497392770494E-10</v>
       </c>
       <c r="I50">
-        <v>5.7458778475923588E-10</v>
+        <v>7.1185101242170796E-10</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2749,27 +2749,27 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>-8.9084527059456346E-7</v>
+        <v>-9.3179893198147562E-6</v>
       </c>
       <c r="M50">
-        <v>3.9331788975324805E-3</v>
+        <v>1.6622695809640996E-2</v>
       </c>
       <c r="N50">
-        <v>2.7184809314922459E-3</v>
+        <v>1.3785208630020678E-2</v>
       </c>
       <c r="O50">
-        <v>3.157225244203156E-4</v>
+        <v>7.4341907348349527E-4</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7.2481475142814764E-9</v>
+        <v>1.7374856672778906E-8</v>
       </c>
       <c r="B51">
-        <v>-1.7737313469841827E-9</v>
+        <v>-5.3450568287300671E-9</v>
       </c>
       <c r="C51">
-        <v>2.419365121822084E-9</v>
+        <v>5.8167201392019969E-9</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2778,16 +2778,16 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-3.4267765324222686E-4</v>
+        <v>-2.3305694628067259E-4</v>
       </c>
       <c r="G51">
-        <v>1.1606864728600879E-9</v>
+        <v>1.5000701113012025E-9</v>
       </c>
       <c r="H51">
-        <v>-2.976065073391333E-10</v>
+        <v>-4.8078308461414161E-10</v>
       </c>
       <c r="I51">
-        <v>4.0311126658920671E-10</v>
+        <v>5.1939765060333392E-10</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2796,27 +2796,27 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>-7.4927383260216093E-7</v>
+        <v>-8.558787236998861E-6</v>
       </c>
       <c r="M51">
-        <v>3.6095332242117705E-3</v>
+        <v>1.5893068039879416E-2</v>
       </c>
       <c r="N51">
-        <v>2.4969376153051726E-3</v>
+        <v>1.3223162938625452E-2</v>
       </c>
       <c r="O51">
-        <v>2.8918722878054328E-4</v>
+        <v>7.0054746700314691E-4</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5.1108591679770319E-9</v>
+        <v>1.2727162218086262E-8</v>
       </c>
       <c r="B52">
-        <v>-1.2496879642220904E-9</v>
+        <v>-3.9089126120066861E-9</v>
       </c>
       <c r="C52">
-        <v>1.7053327207151705E-9</v>
+        <v>4.2592849514022648E-9</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2825,16 +2825,16 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-3.2148430222939117E-4</v>
+        <v>-2.2044945891392878E-4</v>
       </c>
       <c r="G52">
-        <v>8.1474620877091608E-10</v>
+        <v>1.0961521170114809E-9</v>
       </c>
       <c r="H52">
-        <v>-2.0873465918687847E-10</v>
+        <v>-3.5059619572587659E-10</v>
       </c>
       <c r="I52">
-        <v>2.8285199491248947E-10</v>
+        <v>3.7925425530208454E-10</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2843,27 +2843,27 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>-6.302016586480342E-7</v>
+        <v>-7.8658505575100541E-6</v>
       </c>
       <c r="M52">
-        <v>3.3130679848399286E-3</v>
+        <v>1.5203381128362697E-2</v>
       </c>
       <c r="N52">
-        <v>2.2938025034599766E-3</v>
+        <v>1.2689985097313641E-2</v>
       </c>
       <c r="O52">
-        <v>2.6493073431966337E-4</v>
+        <v>6.6045787542746667E-4</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3.6042903723338466E-9</v>
+        <v>9.3277075009977141E-9</v>
       </c>
       <c r="B53">
-        <v>-8.8058790506353701E-10</v>
+        <v>-2.860346134233741E-9</v>
       </c>
       <c r="C53">
-        <v>1.2021969099230825E-9</v>
+        <v>3.1205829361827648E-9</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2872,16 +2872,16 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-3.0218119761165555E-4</v>
+        <v>-2.0877884017588374E-4</v>
       </c>
       <c r="G53">
-        <v>5.7199128149992218E-10</v>
+        <v>8.0152154944914043E-10</v>
       </c>
       <c r="H53">
-        <v>-1.4641998107794368E-10</v>
+        <v>-2.5584941371852614E-10</v>
       </c>
       <c r="I53">
-        <v>1.9849895801134684E-10</v>
+        <v>2.7711974429475307E-10</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2890,27 +2890,27 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>-5.3005271360984096E-7</v>
+        <v>-7.2329114397889124E-6</v>
       </c>
       <c r="M53">
-        <v>3.0414485490394025E-3</v>
+        <v>1.4551093442046307E-2</v>
       </c>
       <c r="N53">
-        <v>2.1075126606523381E-3</v>
+        <v>1.2183928693913758E-2</v>
       </c>
       <c r="O53">
-        <v>2.4275274093626335E-4</v>
+        <v>6.2295338969726337E-4</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2.5421695366074144E-9</v>
+        <v>6.8398519229414691E-9</v>
       </c>
       <c r="B54">
-        <v>-6.2058487978096843E-10</v>
+        <v>-2.0942809773684599E-9</v>
       </c>
       <c r="C54">
-        <v>8.4761925873206367E-10</v>
+        <v>2.2875483336142518E-9</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-2.845685481159204E-4</v>
+        <v>-1.9795841803122043E-4</v>
       </c>
       <c r="G54">
-        <v>4.0162124243576297E-10</v>
+        <v>5.8645540867985343E-10</v>
       </c>
       <c r="H54">
-        <v>-1.0272129443341289E-10</v>
+        <v>-1.8683996080451744E-10</v>
       </c>
       <c r="I54">
-        <v>1.3932246097544029E-10</v>
+        <v>2.0262774696228853E-10</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2937,27 +2937,27 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>-4.4581945057236501E-7</v>
+        <v>-6.6543515612866547E-6</v>
       </c>
       <c r="M54">
-        <v>2.7925457725109051E-3</v>
+        <v>1.3933842542775627E-2</v>
       </c>
       <c r="N54">
-        <v>1.9366410507710892E-3</v>
+        <v>1.1703365521623975E-2</v>
       </c>
       <c r="O54">
-        <v>2.2247098736917338E-4</v>
+        <v>5.8785201743871056E-4</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1.7932798456064978E-9</v>
+        <v>5.0181379147267489E-9</v>
       </c>
       <c r="B55">
-        <v>-4.3740823309058718E-10</v>
+        <v>-1.5342636802298922E-9</v>
       </c>
       <c r="C55">
-        <v>5.9770198666973961E-10</v>
+        <v>1.6777822769193612E-9</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2966,16 +2966,16 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-2.6846916874101456E-4</v>
+        <v>-1.879107557844081E-4</v>
       </c>
       <c r="G55">
-        <v>2.8203596248567287E-10</v>
+        <v>4.29359587249069E-10</v>
       </c>
       <c r="H55">
-        <v>-7.2073489152144371E-11</v>
+        <v>-1.3653777267538406E-10</v>
       </c>
       <c r="I55">
-        <v>9.7801908547110211E-11</v>
+        <v>1.4825646297923965E-10</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2984,27 +2984,27 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>-3.7497239959962928E-7</v>
+        <v>-6.1251276262540092E-6</v>
       </c>
       <c r="M55">
-        <v>2.5644174403260081E-3</v>
+        <v>1.3349431572076104E-2</v>
       </c>
       <c r="N55">
-        <v>1.7798844097029352E-3</v>
+        <v>1.1246776888677101E-2</v>
       </c>
       <c r="O55">
-        <v>2.0391958746348828E-4</v>
+        <v>5.5498549156613884E-4</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1.2651741876368305E-9</v>
+        <v>3.683481326304567E-9</v>
       </c>
       <c r="B56">
-        <v>-3.0834008186215239E-10</v>
+        <v>-1.1246281379178363E-9</v>
       </c>
       <c r="C56">
-        <v>4.2152875634471343E-10</v>
+        <v>1.2311959889694483E-9</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3013,16 +3013,16 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-2.5372581992919957E-4</v>
+        <v>-1.7856656342963819E-4</v>
       </c>
       <c r="G56">
-        <v>1.9808586869550659E-10</v>
+        <v>3.145323170171212E-10</v>
       </c>
       <c r="H56">
-        <v>-5.0576172879364854E-11</v>
+        <v>-9.9844413847804961E-11</v>
       </c>
       <c r="I56">
-        <v>6.86651353060736E-11</v>
+        <v>1.0854289023143337E-10</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3031,27 +3031,27 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>-3.1538414744606652E-7</v>
+        <v>-5.6407064093384158E-6</v>
       </c>
       <c r="M56">
-        <v>2.3552914292406741E-3</v>
+        <v>1.2795816730372883E-2</v>
       </c>
       <c r="N56">
-        <v>1.6360522309712782E-3</v>
+        <v>1.0812745611250184E-2</v>
       </c>
       <c r="O56">
-        <v>1.8694752291309458E-4</v>
+        <v>5.2419817730501911E-4</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>8.9271170702589742E-10</v>
+        <v>2.705144137265287E-9</v>
       </c>
       <c r="B57">
-        <v>-2.1738532578968123E-10</v>
+        <v>-8.2481616045119012E-10</v>
       </c>
       <c r="C57">
-        <v>2.9732281451681314E-10</v>
+        <v>9.0394240283485159E-10</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3060,16 +3060,16 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-2.4019887120164181E-4</v>
+        <v>-1.6986374840718569E-4</v>
       </c>
       <c r="G57">
-        <v>1.3914381992287239E-10</v>
+        <v>2.3054697198939981E-10</v>
       </c>
       <c r="H57">
-        <v>-3.5495452256463347E-11</v>
+        <v>-7.305896617840598E-11</v>
       </c>
       <c r="I57">
-        <v>4.8215653691840998E-11</v>
+        <v>7.9515646131004104E-11</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3078,27 +3078,27 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>-2.6526541464634414E-7</v>
+        <v>-5.1970079663802135E-6</v>
       </c>
       <c r="M57">
-        <v>2.1635504262747579E-3</v>
+        <v>1.227109575936629E-2</v>
       </c>
       <c r="N57">
-        <v>1.5040567589623996E-3</v>
+        <v>1.0399948632517609E-2</v>
       </c>
       <c r="O57">
-        <v>1.7141727768918115E-4</v>
+        <v>4.9534606956435679E-4</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6.299856685703591E-10</v>
+        <v>1.9876259025965382E-9</v>
       </c>
       <c r="B58">
-        <v>-1.532807029451059E-10</v>
+        <v>-6.0525758865155007E-10</v>
       </c>
       <c r="C58">
-        <v>2.0974314260710811E-10</v>
+        <v>6.6400632421042315E-10</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-2.2776424818946964E-4</v>
+        <v>-1.6174658651871876E-4</v>
       </c>
       <c r="G58">
-        <v>9.7754446512807486E-11</v>
+        <v>1.6908154495557224E-10</v>
       </c>
       <c r="H58">
-        <v>-2.4914706100689601E-11</v>
+        <v>-5.349255911240342E-11</v>
       </c>
       <c r="I58">
-        <v>3.3861154620969579E-11</v>
+        <v>5.8285226803686134E-11</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3125,27 +3125,27 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>-2.2311130077396552E-7</v>
+        <v>-4.7903558635445774E-6</v>
       </c>
       <c r="M58">
-        <v>1.9877180563567429E-3</v>
+        <v>1.1773497343898402E-2</v>
       </c>
       <c r="N58">
-        <v>1.3829038947955927E-3</v>
+        <v>1.0007150215851664E-2</v>
       </c>
       <c r="O58">
-        <v>1.5720360070482621E-4</v>
+        <v>4.6829587316085772E-4</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>4.4464000382839053E-10</v>
+        <v>1.4611257854418065E-9</v>
       </c>
       <c r="B59">
-        <v>-1.0809411390668958E-10</v>
+        <v>-4.4437944435316015E-10</v>
       </c>
       <c r="C59">
-        <v>1.4798096698637803E-10</v>
+        <v>4.8799757060688112E-10</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3154,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-2.163116273987193E-4</v>
+        <v>-1.541649966112787E-4</v>
       </c>
       <c r="G59">
-        <v>6.8686537938826106E-11</v>
+        <v>1.2407056080933541E-10</v>
       </c>
       <c r="H59">
-        <v>-1.7490243821151177E-11</v>
+        <v>-3.919001012597789E-11</v>
       </c>
       <c r="I59">
-        <v>2.3783641722729953E-11</v>
+        <v>4.2747521712880955E-11</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3172,27 +3172,27 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>-1.8765607950887997E-7</v>
+        <v>-4.4174334564577625E-6</v>
       </c>
       <c r="M59">
-        <v>1.8264462859431581E-3</v>
+        <v>1.1301371356690097E-2</v>
       </c>
       <c r="N59">
-        <v>1.2716849291393656E-3</v>
+        <v>9.6331956647768956E-3</v>
       </c>
       <c r="O59">
-        <v>1.4419238451152735E-4</v>
+        <v>4.4292415896195512E-4</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3.138663156537152E-10</v>
+        <v>1.0745975537978276E-9</v>
       </c>
       <c r="B60">
-        <v>-7.6238318127666266E-11</v>
+        <v>-3.2643313433286129E-10</v>
       </c>
       <c r="C60">
-        <v>1.0441963343371047E-10</v>
+        <v>3.5881729968220303E-10</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-2.0574284771493787E-4</v>
+        <v>-1.4707390504175308E-4</v>
       </c>
       <c r="G60">
-        <v>4.8269067755136855E-11</v>
+        <v>9.1089979368876231E-11</v>
       </c>
       <c r="H60">
-        <v>-1.2279868480094238E-11</v>
+        <v>-2.8728426304525101E-11</v>
       </c>
       <c r="I60">
-        <v>1.6707696954338443E-11</v>
+        <v>3.1369118731155204E-11</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3219,27 +3219,27 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>-1.5783518167753226E-7</v>
+        <v>-4.0752454003799086E-6</v>
       </c>
       <c r="M60">
-        <v>1.6785039823034155E-3</v>
+        <v>1.0853179875821567E-2</v>
       </c>
       <c r="N60">
-        <v>1.1695690245852289E-3</v>
+        <v>9.2770055264404933E-3</v>
       </c>
       <c r="O60">
-        <v>1.322796489675778E-4</v>
+        <v>4.1911658955883131E-4</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2.2158438047389004E-10</v>
+        <v>7.9068972829483233E-10</v>
       </c>
       <c r="B61">
-        <v>-5.3777630496891028E-11</v>
+        <v>-2.3991488288085555E-10</v>
       </c>
       <c r="C61">
-        <v>7.3691386326402153E-11</v>
+        <v>2.6395857943839474E-10</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3248,16 +3248,16 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-1.9597051168408609E-4</v>
+        <v>-1.4043268795762881E-4</v>
       </c>
       <c r="G61">
-        <v>3.3925812776342608E-11</v>
+        <v>6.6910742978011834E-11</v>
       </c>
       <c r="H61">
-        <v>-8.6228246765074346E-12</v>
+        <v>-2.1071509933737583E-11</v>
       </c>
       <c r="I61">
-        <v>1.1738677930929321E-11</v>
+        <v>2.3031688302564492E-11</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3266,27 +3266,27 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>-1.3275322284049076E-7</v>
+        <v>-3.7610836959592726E-6</v>
       </c>
       <c r="M61">
-        <v>1.5427665197187042E-3</v>
+        <v>1.0427488910801325E-2</v>
       </c>
       <c r="N61">
-        <v>1.0757963776606488E-3</v>
+        <v>8.9375702391230587E-3</v>
       </c>
       <c r="O61">
-        <v>1.2137061986828968E-4</v>
+        <v>3.9676720859663499E-4</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1.5645581126951433E-10</v>
+        <v>5.8205656104450198E-10</v>
       </c>
       <c r="B62">
-        <v>-3.7939096309003162E-11</v>
+        <v>-1.7641643114606E-10</v>
       </c>
       <c r="C62">
-        <v>5.2012727458361496E-11</v>
+        <v>1.9426810636348689E-10</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3295,16 +3295,16 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1.8691675309158903E-4</v>
+        <v>-1.3420468113993587E-4</v>
       </c>
       <c r="G62">
-        <v>2.3848207359517599E-11</v>
+        <v>4.9174362359849514E-11</v>
       </c>
       <c r="H62">
-        <v>-6.0556868161951473E-12</v>
+        <v>-1.5463946631147758E-11</v>
       </c>
       <c r="I62">
-        <v>8.2486671813973723E-12</v>
+        <v>1.6918991287338615E-11</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3313,27 +3313,27 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>-1.1165711380798113E-7</v>
+        <v>-3.47249767814084E-6</v>
       </c>
       <c r="M62">
-        <v>1.4182063342943598E-3</v>
+        <v>1.0022960778544181E-2</v>
       </c>
       <c r="N62">
-        <v>9.896719972852673E-4</v>
+        <v>8.6139451877241535E-3</v>
       </c>
       <c r="O62">
-        <v>1.1137889348447925E-4</v>
+        <v>3.7577778837424397E-4</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1.1048474480980354E-10</v>
+        <v>4.2866705233076834E-10</v>
       </c>
       <c r="B63">
-        <v>-2.6768815559247767E-11</v>
+        <v>-1.2978848567308482E-10</v>
       </c>
       <c r="C63">
-        <v>3.6716438531511936E-11</v>
+        <v>1.4304321092696779E-10</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-1.7851215037690949E-4</v>
+        <v>-1.2835674860274196E-4</v>
       </c>
       <c r="G63">
-        <v>1.6766563446266345E-11</v>
+        <v>3.6157115396966738E-11</v>
       </c>
       <c r="H63">
-        <v>-4.2533692617357449E-12</v>
+        <v>-1.1354793930503807E-11</v>
       </c>
       <c r="I63">
-        <v>5.7970973700428707E-12</v>
+        <v>1.2434914050832699E-11</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3360,27 +3360,27 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>-9.3913445483225403E-8</v>
+        <v>-3.2072674418274056E-6</v>
       </c>
       <c r="M63">
-        <v>1.30388433852022E-3</v>
+        <v>9.6383470755959343E-3</v>
       </c>
       <c r="N63">
-        <v>9.1056004252870748E-4</v>
+        <v>8.3052461342516277E-3</v>
       </c>
       <c r="O63">
-        <v>1.0222567882503839E-4</v>
+        <v>3.5605723077763518E-4</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>7.8031667547248968E-11</v>
+        <v>3.1584059875403423E-10</v>
       </c>
       <c r="B64">
-        <v>-1.8889815637616419E-11</v>
+        <v>-9.5531174241056003E-11</v>
       </c>
       <c r="C64">
-        <v>2.592207312998893E-11</v>
+        <v>1.0537313815157339E-10</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3389,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-1.706947680364452E-4</v>
+        <v>-1.2285890237278822E-4</v>
       </c>
       <c r="G64">
-        <v>1.1789606328231153E-11</v>
+        <v>2.6598472630772512E-11</v>
       </c>
       <c r="H64">
-        <v>-2.9879062187395298E-12</v>
+        <v>-8.3419368238476676E-12</v>
       </c>
       <c r="I64">
-        <v>4.0747405449792495E-12</v>
+        <v>9.1437587660233741E-12</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3407,27 +3407,27 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>-7.8989468570927414E-8</v>
+        <v>-2.9633802700753822E-6</v>
       </c>
       <c r="M64">
-        <v>1.1989421152383242E-3</v>
+        <v>9.2724821975300204E-3</v>
       </c>
       <c r="N64">
-        <v>8.3787866798246742E-4</v>
+        <v>8.0106449931567174E-3</v>
       </c>
       <c r="O64">
-        <v>9.383911022779283E-5</v>
+        <v>3.3752101702976868E-4</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5.5118490019070681E-11</v>
+        <v>2.3281229388771862E-10</v>
       </c>
       <c r="B65">
-        <v>-1.3331650598284265E-11</v>
+        <v>-7.034974079468879E-11</v>
       </c>
       <c r="C65">
-        <v>1.830360554480295E-11</v>
+        <v>7.76580355577039E-11</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-1.6340931043045618E-4</v>
+        <v>-1.1768396691879409E-4</v>
       </c>
       <c r="G65">
-        <v>8.2911825553348227E-12</v>
+        <v>1.9575932620950556E-11</v>
       </c>
       <c r="H65">
-        <v>-2.0992343665840155E-12</v>
+        <v>-6.1316475706364925E-12</v>
       </c>
       <c r="I65">
-        <v>2.8645357690809054E-12</v>
+        <v>6.7269053819326736E-12</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3454,27 +3454,27 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>-6.643709621334537E-8</v>
+        <v>-2.7390096913501186E-6</v>
       </c>
       <c r="M65">
-        <v>1.1025948183659429E-3</v>
+        <v>8.9242773606346484E-3</v>
       </c>
       <c r="N65">
-        <v>7.7109532997483702E-4</v>
+        <v>7.7293659239143064E-3</v>
       </c>
       <c r="O65">
-        <v>8.6153623597836251E-5</v>
+        <v>3.2009070212609141E-4</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3.8938654769695963E-11</v>
+        <v>1.7168458274089256E-10</v>
       </c>
       <c r="B66">
-        <v>-9.4101393344203643E-12</v>
+        <v>-5.1830456910500243E-11</v>
       </c>
       <c r="C66">
-        <v>1.2925931929746386E-11</v>
+        <v>5.725769953406663E-11</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-1.5660637437947544E-4</v>
+        <v>-1.1280728259120615E-4</v>
       </c>
       <c r="G66">
-        <v>5.8317548321282532E-12</v>
+        <v>1.4414071206455707E-11</v>
       </c>
       <c r="H66">
-        <v>-1.4750854858568295E-12</v>
+        <v>-4.5092708931905789E-12</v>
       </c>
       <c r="I66">
-        <v>2.0140555889724965E-12</v>
+        <v>4.9511924718867053E-12</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3501,27 +3501,27 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>-5.5879449468844278E-8</v>
+        <v>-2.5324968438151481E-6</v>
       </c>
       <c r="M66">
-        <v>1.0141247146677869E-3</v>
+        <v>8.5927150848390758E-3</v>
       </c>
       <c r="N66">
-        <v>7.0972251129339551E-4</v>
+        <v>7.4606817155770727E-3</v>
       </c>
       <c r="O66">
-        <v>7.9109390257237067E-5</v>
+        <v>3.0369345018014409E-4</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2.7512017355648923E-11</v>
+        <v>1.2666059629700451E-10</v>
       </c>
       <c r="B67">
-        <v>-6.642988628316162E-12</v>
+        <v>-3.8204072286670711E-11</v>
       </c>
       <c r="C67">
-        <v>9.1294502821723557E-12</v>
+        <v>4.2234715407525005E-11</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3530,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-1.5024178864304135E-4</v>
+        <v>-1.0820644319522898E-4</v>
       </c>
       <c r="G67">
-        <v>4.1024714489721094E-12</v>
+        <v>1.0618067694930947E-11</v>
       </c>
       <c r="H67">
-        <v>-1.0366522455266629E-12</v>
+        <v>-3.3177836668483808E-12</v>
       </c>
       <c r="I67">
-        <v>1.416274505080158E-12</v>
+        <v>3.6458899391586137E-12</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3548,27 +3548,27 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>-4.6999540882620828E-8</v>
+        <v>-2.3423338680547294E-6</v>
       </c>
       <c r="M67">
-        <v>9.3287530713623583E-4</v>
+        <v>8.2768441003240583E-3</v>
       </c>
       <c r="N67">
-        <v>6.5331382607934174E-4</v>
+        <v>7.2039104401535612E-3</v>
       </c>
       <c r="O67">
-        <v>7.2651802953633331E-5</v>
+        <v>2.8826160722942402E-4</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1.9441115384211116E-11</v>
+        <v>9.3483293487192247E-11</v>
       </c>
       <c r="B68">
-        <v>-4.6901618391517429E-12</v>
+        <v>-2.8173016459425477E-11</v>
       </c>
       <c r="C68">
-        <v>6.4488784682718387E-12</v>
+        <v>3.1166690181042406E-11</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3577,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-1.4427602985957652E-4</v>
+        <v>-1.038610634712064E-4</v>
       </c>
       <c r="G68">
-        <v>2.8864194984774055E-12</v>
+        <v>7.8251786003339216E-12</v>
       </c>
       <c r="H68">
-        <v>-7.2862703525010549E-13</v>
+        <v>-2.4422938274934074E-12</v>
       </c>
       <c r="I68">
-        <v>9.9610443350507519E-13</v>
+        <v>2.6859118104230869E-12</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3595,27 +3595,27 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>-3.9530756766757868E-8</v>
+        <v>-2.1671490867288972E-6</v>
       </c>
       <c r="M68">
-        <v>8.5824598619385932E-4</v>
+        <v>7.9757746434529278E-3</v>
       </c>
       <c r="N68">
-        <v>6.0146047017068445E-4</v>
+        <v>6.9584123535937894E-3</v>
       </c>
       <c r="O68">
-        <v>6.6731009102803819E-5</v>
+        <v>2.7373230835023218E-4</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1.3739725406796625E-11</v>
+        <v>6.9024999049815965E-11</v>
       </c>
       <c r="B69">
-        <v>-3.3118384577966887E-12</v>
+        <v>-2.078514344765787E-11</v>
       </c>
       <c r="C69">
-        <v>4.5559852187201005E-12</v>
+        <v>2.3008842450370333E-11</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3624,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-1.386737058205899E-4</v>
+        <v>-9.9752572815987273E-5</v>
       </c>
       <c r="G69">
-        <v>2.0311900309858779E-12</v>
+        <v>5.7694008300960115E-12</v>
       </c>
       <c r="H69">
-        <v>-5.1220139241081597E-13</v>
+        <v>-1.7986796179465208E-12</v>
       </c>
       <c r="I69">
-        <v>7.0066175084093629E-13</v>
+        <v>1.9795644488697561E-12</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3642,27 +3642,27 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>-3.324885198028069E-8</v>
+        <v>-2.0056937612939711E-6</v>
       </c>
       <c r="M69">
-        <v>7.8968716004048896E-4</v>
+        <v>7.6886741105729392E-3</v>
       </c>
       <c r="N69">
-        <v>5.5378798543268297E-4</v>
+        <v>6.7235870249308565E-3</v>
       </c>
       <c r="O69">
-        <v>6.1301486814016278E-5</v>
+        <v>2.6004711620291118E-4</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>9.7115895572288634E-12</v>
+        <v>5.0986621274213511E-11</v>
       </c>
       <c r="B70">
-        <v>-2.3388698385436632E-12</v>
+        <v>-1.5341428286471829E-11</v>
       </c>
       <c r="C70">
-        <v>3.2191224994291032E-12</v>
+        <v>1.6993362272899049E-11</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3671,16 +3671,16 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-1.334030980779604E-4</v>
+        <v>-9.5864032058415075E-5</v>
       </c>
       <c r="G70">
-        <v>1.4295355023187363E-12</v>
+        <v>4.2554962728250494E-12</v>
       </c>
       <c r="H70">
-        <v>-3.6009467013147715E-13</v>
+        <v>-1.3252759207509663E-12</v>
       </c>
       <c r="I70">
-        <v>4.9291435131080001E-13</v>
+        <v>1.4596057695825947E-12</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3689,27 +3689,27 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>-2.7965216808922833E-8</v>
+        <v>-1.8568302429233796E-6</v>
       </c>
       <c r="M70">
-        <v>7.2669582007329266E-4</v>
+        <v>7.4147630408936066E-3</v>
       </c>
       <c r="N70">
-        <v>5.0995330955846041E-4</v>
+        <v>6.4988706757364055E-3</v>
       </c>
       <c r="O70">
-        <v>5.6321659677572975E-5</v>
+        <v>2.4715168837826935E-4</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>6.8653354606201195E-12</v>
+        <v>3.7677427527122681E-11</v>
       </c>
       <c r="B71">
-        <v>-1.6519625173966939E-12</v>
+        <v>-1.1328404880828202E-11</v>
       </c>
       <c r="C71">
-        <v>2.2748469774569458E-12</v>
+        <v>1.2555715832109269E-11</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-1.2843575686666275E-4</v>
+        <v>-9.2179970515855153E-5</v>
       </c>
       <c r="G71">
-        <v>1.0062568062747029E-12</v>
+        <v>3.1401535340234788E-12</v>
       </c>
       <c r="H71">
-        <v>-2.5319252867145932E-13</v>
+        <v>-9.7691347075315852E-13</v>
       </c>
       <c r="I71">
-        <v>3.4682750498720653E-13</v>
+        <v>1.076674622473612E-12</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3736,27 +3736,27 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>-2.3521214075216001E-8</v>
+        <v>-1.7195213579057623E-6</v>
       </c>
       <c r="M71">
-        <v>6.688115014742424E-4</v>
+        <v>7.1533114020755559E-3</v>
       </c>
       <c r="N71">
-        <v>4.6964208548734413E-4</v>
+        <v>6.2837337135182763E-3</v>
       </c>
       <c r="O71">
-        <v>5.1753546679954456E-5</v>
+        <v>2.3499547114320927E-4</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>4.8538703920384153E-12</v>
+        <v>2.7853475716353518E-11</v>
       </c>
       <c r="B72">
-        <v>-1.1669430853721173E-12</v>
+        <v>-8.3687320565469948E-12</v>
       </c>
       <c r="C72">
-        <v>1.607744801488151E-12</v>
+        <v>9.2806708350069915E-12</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3765,16 +3765,16 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-1.2374614218186371E-4</v>
+        <v>-8.8686240914208624E-5</v>
       </c>
       <c r="G72">
-        <v>7.0844564782469713E-13</v>
+        <v>2.3180866749937323E-12</v>
       </c>
       <c r="H72">
-        <v>-1.7806743733849039E-13</v>
+        <v>-7.2044433910686426E-13</v>
       </c>
       <c r="I72">
-        <v>2.4407019615245592E-13</v>
+        <v>7.9454284421639647E-13</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3783,27 +3783,27 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>-1.9783416096677243E-8</v>
+        <v>-1.5928208879761081E-6</v>
       </c>
       <c r="M72">
-        <v>6.1561260281547037E-4</v>
+        <v>6.9036351543769331E-3</v>
       </c>
       <c r="N72">
-        <v>4.3256620699255732E-4</v>
+        <v>6.0776784440317007E-3</v>
       </c>
       <c r="O72">
-        <v>4.7562443960622344E-5</v>
+        <v>2.2353141739136589E-4</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3.4321928015717479E-12</v>
+        <v>2.0599103375421431E-11</v>
       </c>
       <c r="B73">
-        <v>-8.2443311436956413E-13</v>
+        <v>-6.1849423995040203E-12</v>
       </c>
       <c r="C73">
-        <v>1.1364489596290797E-12</v>
+        <v>6.8626260230075787E-12</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3812,16 +3812,16 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-1.1931130559835375E-4</v>
+        <v>-8.5369890062147698E-5</v>
       </c>
       <c r="G73">
-        <v>4.9886021239823697E-13</v>
+        <v>1.7119169573983786E-12</v>
       </c>
       <c r="H73">
-        <v>-1.2524549298910238E-13</v>
+        <v>-5.3153307152545693E-13</v>
       </c>
       <c r="I73">
-        <v>1.7179467724935825E-13</v>
+        <v>5.8656825428572897E-13</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3830,27 +3830,27 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>-1.6639598439856702E-8</v>
+        <v>-1.4758650230024223E-6</v>
       </c>
       <c r="M73">
-        <v>5.6671303193107155E-4</v>
+        <v>6.6650930712257089E-3</v>
       </c>
       <c r="N73">
-        <v>3.9846157916778591E-4</v>
+        <v>5.8802369487029058E-3</v>
       </c>
       <c r="O73">
-        <v>4.3716635440930553E-5</v>
+        <v>2.1271572679367395E-4</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2.4272065838696713E-12</v>
+        <v>1.5240020039592699E-11</v>
       </c>
       <c r="B74">
-        <v>-5.8252168520943489E-13</v>
+        <v>-4.5729258475140404E-12</v>
       </c>
       <c r="C74">
-        <v>8.0340055595860978E-13</v>
+        <v>5.076595017377323E-12</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3859,16 +3859,16 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>-1.1511060807526767E-4</v>
+        <v>-8.2219043435368197E-5</v>
       </c>
       <c r="G74">
-        <v>3.5128690080278428E-13</v>
+        <v>1.2647654352398213E-12</v>
       </c>
       <c r="H74">
-        <v>-8.8102364909698532E-14</v>
+        <v>-3.9232664735980699E-13</v>
       </c>
       <c r="I74">
-        <v>1.2093412691014136E-13</v>
+        <v>4.3322171247187467E-13</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3877,27 +3877,27 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>-1.3995370516815974E-8</v>
+        <v>-1.3678646786249463E-6</v>
       </c>
       <c r="M74">
-        <v>5.2175914837164028E-4</v>
+        <v>6.437083795932096E-3</v>
       </c>
       <c r="N74">
-        <v>3.6708607450963715E-4</v>
+        <v>5.6909691144863229E-3</v>
       </c>
       <c r="O74">
-        <v>4.0187129637714314E-5</v>
+        <v>2.0250760631647643E-4</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1.7167255271664948E-12</v>
+        <v>1.1279506217931611E-11</v>
       </c>
       <c r="B75">
-        <v>-4.1167069753100805E-13</v>
+        <v>-3.3824578059084486E-12</v>
       </c>
       <c r="C75">
-        <v>5.6802093892669185E-13</v>
+        <v>3.7568399185212395E-12</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-1.1112546956070717E-4</v>
+        <v>-7.9222802057520776E-5</v>
       </c>
       <c r="G75">
-        <v>2.474317047547932E-13</v>
+        <v>9.3476654987918144E-13</v>
       </c>
       <c r="H75">
-        <v>-6.198128430254555E-14</v>
+        <v>-2.8970032721937451E-13</v>
       </c>
       <c r="I75">
-        <v>8.5129434365980064E-14</v>
+        <v>3.2007983565206033E-13</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3924,27 +3924,27 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>-1.1771341617499647E-8</v>
+        <v>-1.2680985841617699E-6</v>
       </c>
       <c r="M75">
-        <v>4.8042697553266994E-4</v>
+        <v>6.2190431159400376E-3</v>
       </c>
       <c r="N75">
-        <v>3.382176670746288E-4</v>
+        <v>5.5094608045035262E-3</v>
       </c>
       <c r="O75">
-        <v>3.6947420231692174E-5</v>
+        <v>1.9286904943187632E-4</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1.2144236233919198E-12</v>
+        <v>8.3513767330194769E-12</v>
       </c>
       <c r="B76">
-        <v>-2.909154398859452E-13</v>
+        <v>-2.5029202520089807E-12</v>
       </c>
       <c r="C76">
-        <v>4.0166635449799689E-13</v>
+        <v>2.7812590326042092E-12</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3953,16 +3953,16 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-1.0733914671369933E-4</v>
+        <v>-7.6371150264018206E-5</v>
       </c>
       <c r="G76">
-        <v>1.7429267905476486E-13</v>
+        <v>6.9114111259490793E-13</v>
       </c>
       <c r="H76">
-        <v>-4.3607093244999203E-14</v>
+        <v>-2.1400595581358824E-13</v>
       </c>
       <c r="I76">
-        <v>5.9945875424066093E-14</v>
+        <v>2.3658218241605156E-13</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -3971,27 +3971,27 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>-9.9007371005358867E-9</v>
+        <v>-1.1759070573986411E-6</v>
       </c>
       <c r="M76">
-        <v>4.4241965805288014E-4</v>
+        <v>6.0104414375568588E-3</v>
       </c>
       <c r="N76">
-        <v>3.1165272880108913E-4</v>
+        <v>5.335322158751178E-3</v>
       </c>
       <c r="O76">
-        <v>3.3973268192340665E-5</v>
+        <v>1.8376463248879585E-4</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>8.5912758388910027E-13</v>
+        <v>6.1857186040015222E-12</v>
       </c>
       <c r="B77">
-        <v>-2.0566264740611788E-13</v>
+        <v>-1.8528448616653546E-12</v>
       </c>
       <c r="C77">
-        <v>2.840505608503463E-13</v>
+        <v>2.0597885302160127E-12</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4000,16 +4000,16 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-1.0373653549824693E-4</v>
+        <v>-7.365487310829787E-5</v>
       </c>
       <c r="G77">
-        <v>1.2282767395769648E-13</v>
+        <v>5.1119299269787784E-13</v>
       </c>
       <c r="H77">
-        <v>-3.0716170347962666E-14</v>
+        <v>-1.5815475913021665E-13</v>
       </c>
       <c r="I77">
-        <v>4.2231650275602485E-14</v>
+        <v>1.749273741730966E-13</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4018,27 +4018,27 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>-8.3273936758566763E-9</v>
+        <v>-1.0906863927173659E-6</v>
       </c>
       <c r="M77">
-        <v>4.0746514234985605E-4</v>
+        <v>5.810781445506767E-3</v>
       </c>
       <c r="N77">
-        <v>2.8720447354645899E-4</v>
+        <v>5.1681860150259371E-3</v>
       </c>
       <c r="O77">
-        <v>3.1242503467742035E-5</v>
+        <v>1.7516132684379445E-4</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6.078717776050427E-13</v>
+        <v>4.5833495728889567E-12</v>
       </c>
       <c r="B78">
-        <v>-1.4538370507466425E-13</v>
+        <v>-1.3721468405947236E-12</v>
       </c>
       <c r="C78">
-        <v>2.0091336002299917E-13</v>
+        <v>1.5260389777235364E-12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4047,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>-1.0030399579123871E-4</v>
+        <v>-7.1065482321253722E-5</v>
       </c>
       <c r="G78">
-        <v>8.6560388486608034E-14</v>
+        <v>3.7824156505296614E-13</v>
       </c>
       <c r="H78">
-        <v>-2.1593837828959295E-14</v>
+        <v>-1.1692361364826605E-13</v>
       </c>
       <c r="I78">
-        <v>2.9760144965646556E-14</v>
+        <v>1.2939427307401275E-13</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4065,27 +4065,27 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>-7.0040730376024704E-9</v>
+        <v>-1.0118837974294946E-6</v>
       </c>
       <c r="M78">
-        <v>3.7531406020745943E-4</v>
+        <v>5.6195959329395093E-3</v>
       </c>
       <c r="N78">
-        <v>2.6470153571203945E-4</v>
+        <v>5.0077064410012943E-3</v>
       </c>
       <c r="O78">
-        <v>2.8734844439166134E-5</v>
+        <v>1.670283254699039E-4</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4.3012507136255509E-13</v>
+        <v>3.397301487747687E-12</v>
       </c>
       <c r="B79">
-        <v>-1.0278814836321241E-13</v>
+        <v>-1.0165679409368522E-12</v>
       </c>
       <c r="C79">
-        <v>1.4213938668048185E-13</v>
+        <v>1.1310260664540043E-12</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4094,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-9.7029195482323249E-5</v>
+        <v>-6.8595149865546828E-5</v>
       </c>
       <c r="G79">
-        <v>6.1025258920229434E-14</v>
+        <v>2.7997287028418735E-13</v>
       </c>
       <c r="H79">
-        <v>-1.5228559154441729E-14</v>
+        <v>-8.6482884345936585E-14</v>
       </c>
       <c r="I79">
-        <v>2.095854354264601E-14</v>
+        <v>9.5750708948928931E-14</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4112,27 +4112,27 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>-5.8910435973835718E-9</v>
+        <v>-9.3899281873977001E-7</v>
       </c>
       <c r="M79">
-        <v>3.4573779718983914E-4</v>
+        <v>5.4364457887013688E-3</v>
       </c>
       <c r="N79">
-        <v>2.4398667152562373E-4</v>
+        <v>4.8535573691137939E-3</v>
       </c>
       <c r="O79">
-        <v>2.6431733507877492E-5</v>
+        <v>1.5933688287071566E-4</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>3.0447249659775681E-13</v>
+        <v>2.5190655910429478E-12</v>
       </c>
       <c r="B80">
-        <v>-7.2707272301563032E-14</v>
+        <v>-7.5341954897112371E-13</v>
       </c>
       <c r="C80">
-        <v>1.005677023139621E-13</v>
+        <v>8.3856413876251933E-13</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-9.3900971842185589E-5</v>
+        <v>-6.6236648241576446E-5</v>
       </c>
       <c r="G80">
-        <v>4.3002638487147728E-14</v>
+        <v>2.0731860672640322E-13</v>
       </c>
       <c r="H80">
-        <v>-1.0695148470555674E-14</v>
+        <v>-6.398024966967698E-14</v>
       </c>
       <c r="I80">
-        <v>1.4753630416129858E-14</v>
+        <v>7.0879175544697714E-14</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4159,27 +4159,27 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>-4.9548875928155196E-9</v>
+        <v>-8.7154921027795697E-7</v>
       </c>
       <c r="M80">
-        <v>3.1852672933225309E-4</v>
+        <v>5.2609181297504125E-3</v>
       </c>
       <c r="N80">
-        <v>2.2491557213728653E-4</v>
+        <v>4.7054313265765674E-3</v>
       </c>
       <c r="O80">
-        <v>2.4316187336645731E-5</v>
+        <v>1.5206016722585085E-4</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2.1550662489112761E-13</v>
+        <v>1.8685358022756708E-12</v>
       </c>
       <c r="B81">
-        <v>-5.1415661851529469E-14</v>
+        <v>-5.5860760461712286E-13</v>
       </c>
       <c r="C81">
-        <v>7.1152960067087813E-14</v>
+        <v>6.2195137928711119E-13</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-9.0909208194427877E-5</v>
+        <v>-6.3983296801481003E-5</v>
       </c>
       <c r="G81">
-        <v>3.0321424383651495E-14</v>
+        <v>1.5356477993983778E-13</v>
       </c>
       <c r="H81">
-        <v>-7.5433486617587023E-15</v>
+        <v>-4.7352915239733713E-14</v>
       </c>
       <c r="I81">
-        <v>1.0386753185937576E-14</v>
+        <v>5.2486269299021969E-14</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4206,27 +4206,27 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>-4.1674977913075395E-9</v>
+        <v>-8.0912719275413479E-7</v>
       </c>
       <c r="M81">
-        <v>2.9348861308312973E-4</v>
+        <v>5.092624567581844E-3</v>
       </c>
       <c r="N81">
-        <v>2.0735577866739765E-4</v>
+        <v>4.5630382534454011E-3</v>
       </c>
       <c r="O81">
-        <v>2.2372660407178459E-5</v>
+        <v>1.4517312378478943E-4</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1.5254464358349651E-13</v>
+        <v>1.3864909220728805E-12</v>
       </c>
       <c r="B82">
-        <v>-3.6347468245089156E-14</v>
+        <v>-4.1432365474999448E-13</v>
       </c>
       <c r="C82">
-        <v>5.036094997813557E-14</v>
+        <v>4.6145563560782782E-13</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4235,16 +4235,16 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>-8.8044724157527237E-5</v>
+        <v>-6.1828913415242455E-5</v>
       </c>
       <c r="G82">
-        <v>2.1390296941111348E-14</v>
+        <v>1.1379976326354932E-13</v>
       </c>
       <c r="H82">
-        <v>-5.3290705182007514E-15</v>
+        <v>-3.5070200711727144E-14</v>
       </c>
       <c r="I82">
-        <v>7.321304056833671E-15</v>
+        <v>3.8878107082902195E-14</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4253,27 +4253,27 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>-3.5052334923513229E-9</v>
+        <v>-7.5133606855689757E-7</v>
       </c>
       <c r="M82">
-        <v>2.7044711484823666E-4</v>
+        <v>4.93119959842907E-3</v>
       </c>
       <c r="N82">
-        <v>1.9118569023920026E-4</v>
+        <v>4.4261044022180888E-3</v>
       </c>
       <c r="O82">
-        <v>2.0586920679620411E-5</v>
+        <v>1.3865234860828261E-4</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1.0802470029602773E-13</v>
+        <v>1.0291665932170093E-12</v>
       </c>
       <c r="B83">
-        <v>-2.5732502548534183E-14</v>
+        <v>-3.0742123132857355E-13</v>
       </c>
       <c r="C83">
-        <v>3.5656662807544613E-14</v>
+        <v>3.424974589652915E-13</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4282,16 +4282,16 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-8.529917792335053E-5</v>
+        <v>-5.976777090960577E-5</v>
       </c>
       <c r="G83">
-        <v>1.5049689889363232E-14</v>
+        <v>8.4343325974194673E-14</v>
       </c>
       <c r="H83">
-        <v>-3.7500866609560844E-15</v>
+        <v>-2.5974777884130163E-14</v>
       </c>
       <c r="I83">
-        <v>5.1748728758917022E-15</v>
+        <v>2.8808067042973564E-14</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4300,27 +4300,27 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>-2.9482107496055696E-9</v>
+        <v>-6.9781715430293295E-7</v>
       </c>
       <c r="M83">
-        <v>2.4924046773375539E-4</v>
+        <v>4.7762991078301939E-3</v>
       </c>
       <c r="N83">
-        <v>1.7629365683651747E-4</v>
+        <v>4.2943713129583987E-3</v>
       </c>
       <c r="O83">
-        <v>1.8945936254393609E-5</v>
+        <v>1.3247597183230653E-4</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>7.6519038019442728E-14</v>
+        <v>7.6418934672314463E-13</v>
       </c>
       <c r="B84">
-        <v>-1.8201489698160207E-14</v>
+        <v>-2.2817795272292835E-13</v>
       </c>
       <c r="C84">
-        <v>2.5220566376068138E-14</v>
+        <v>2.5429182569171516E-13</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4329,16 +4329,16 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-8.266497921735307E-5</v>
+        <v>-5.7794557767185672E-5</v>
       </c>
       <c r="G84">
-        <v>1.0658141036401503E-14</v>
+        <v>6.254298666265511E-14</v>
       </c>
       <c r="H84">
-        <v>-2.6275278249462039E-15</v>
+        <v>-1.9245557528587857E-14</v>
       </c>
       <c r="I84">
-        <v>3.6452322641859309E-15</v>
+        <v>2.1352443622747941E-14</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4347,27 +4347,27 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>-2.4797054779905161E-9</v>
+        <v>-6.4824099939337593E-7</v>
       </c>
       <c r="M84">
-        <v>2.2972024421806668E-4</v>
+        <v>4.627598980904383E-3</v>
       </c>
       <c r="N84">
-        <v>1.6257714956157009E-4</v>
+        <v>4.1675948584042038E-3</v>
       </c>
       <c r="O84">
-        <v>1.7437772038670423E-5</v>
+        <v>1.266235496979665E-4</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>5.4178883601707639E-14</v>
+        <v>5.6763736568297775E-13</v>
       </c>
       <c r="B85">
-        <v>-1.2860083368574729E-14</v>
+        <v>-1.6942701210252511E-13</v>
       </c>
       <c r="C85">
-        <v>1.787459069646502E-14</v>
+        <v>1.8886733447029006E-13</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4376,16 +4376,16 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-8.0135211741432728E-5</v>
+        <v>-5.5904342632544514E-5</v>
       </c>
       <c r="G85">
-        <v>7.5371807560663402E-15</v>
+        <v>4.63908276872514E-14</v>
       </c>
       <c r="H85">
-        <v>-1.8627075190933183E-15</v>
+        <v>-1.4271282568399458E-14</v>
       </c>
       <c r="I85">
-        <v>2.5905203907920318E-15</v>
+        <v>1.5834952396939376E-14</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4394,27 +4394,27 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>-2.0856511702878797E-9</v>
+        <v>-6.0230486208544063E-7</v>
       </c>
       <c r="M85">
-        <v>2.1175023450471632E-4</v>
+        <v>4.4847938103731999E-3</v>
       </c>
       <c r="N85">
-        <v>1.4994200153560047E-4</v>
+        <v>4.0455443539495302E-3</v>
       </c>
       <c r="O85">
-        <v>1.6051495512900723E-5</v>
+        <v>1.210759646540246E-4</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3.8364373406491519E-14</v>
+        <v>4.2176547968405688E-13</v>
       </c>
       <c r="B86">
-        <v>-9.1099967076186458E-15</v>
+        <v>-1.2585456486492929E-13</v>
       </c>
       <c r="C86">
-        <v>1.2650374575034422E-14</v>
+        <v>1.4032711500736437E-13</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4423,16 +4423,16 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-7.7703564038275922E-5</v>
+        <v>-5.4092542223160526E-5</v>
       </c>
       <c r="G86">
-        <v>5.2673914612771314E-15</v>
+        <v>3.4422623481792211E-14</v>
       </c>
       <c r="H86">
-        <v>-1.313763912473102E-15</v>
+        <v>-1.0572653863505366E-14</v>
       </c>
       <c r="I86">
-        <v>1.8010284621696983E-15</v>
+        <v>1.1751234905789585E-14</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4441,27 +4441,27 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>-1.7542167348357414E-9</v>
+        <v>-5.597304175543526E-7</v>
       </c>
       <c r="M86">
-        <v>1.952054212398894E-4</v>
+        <v>4.3475956949960686E-3</v>
       </c>
       <c r="N86">
-        <v>1.3830171328749815E-4</v>
+        <v>3.9280017277849447E-3</v>
       </c>
       <c r="O86">
-        <v>1.4777090776241231E-5</v>
+        <v>1.158153328958741E-4</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2.7163456669162162E-14</v>
+        <v>3.1349526149629778E-13</v>
       </c>
       <c r="B87">
-        <v>-6.4331256371335458E-15</v>
+        <v>-9.3512023521416919E-14</v>
       </c>
       <c r="C87">
-        <v>8.9372953482325102E-15</v>
+        <v>1.0429054445434563E-13</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4470,16 +4470,16 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-7.5364267838070223E-5</v>
+        <v>-5.2354892289058369E-5</v>
       </c>
       <c r="G87">
-        <v>3.7377508495713601E-15</v>
+        <v>2.5551624308458744E-14</v>
       </c>
       <c r="H87">
-        <v>-9.0051423108484915E-16</v>
+        <v>-7.8451530985798211E-15</v>
       </c>
       <c r="I87">
-        <v>1.3014281010883779E-15</v>
+        <v>8.7174711893567287E-15</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4488,27 +4488,27 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>-1.475451113138367E-9</v>
+        <v>-5.202616752063095E-7</v>
       </c>
       <c r="M87">
-        <v>1.7997104211813712E-4</v>
+        <v>4.2157331216692477E-3</v>
       </c>
       <c r="N87">
-        <v>1.2757681702790791E-4</v>
+        <v>3.814760746843848E-3</v>
       </c>
       <c r="O87">
-        <v>1.3605380126402444E-5</v>
+        <v>1.1082491875730405E-4</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1.9256201571554105E-14</v>
+        <v>2.3308656592137467E-13</v>
       </c>
       <c r="B88">
-        <v>-4.5642502123478661E-15</v>
+        <v>-6.9500119944824037E-14</v>
       </c>
       <c r="C88">
-        <v>6.3282712403633923E-15</v>
+        <v>7.7530997495094723E-14</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4517,16 +4517,16 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-7.311204305503965E-5</v>
+        <v>-5.0687421304529726E-5</v>
       </c>
       <c r="G88">
-        <v>2.6521994477156518E-15</v>
+        <v>1.8951824236929886E-14</v>
       </c>
       <c r="H88">
-        <v>-6.5996590908273197E-16</v>
+        <v>-5.8248644003404997E-15</v>
       </c>
       <c r="I88">
-        <v>9.2518585385429718E-16</v>
+        <v>6.4684765480446264E-15</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4535,27 +4535,27 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>-1.2409846113688634E-9</v>
+        <v>-4.8366308481436908E-7</v>
       </c>
       <c r="M88">
-        <v>1.6594173266612809E-4</v>
+        <v>4.0889499249699389E-3</v>
       </c>
       <c r="N88">
-        <v>1.1769429470293025E-4</v>
+        <v>3.7056262945355323E-3</v>
       </c>
       <c r="O88">
-        <v>1.2527952497225985E-5</v>
+        <v>1.060890554195223E-4</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1.366807901427415E-14</v>
+        <v>1.7336100808863972E-13</v>
       </c>
       <c r="B89">
-        <v>-3.2134788657205918E-15</v>
+        <v>-5.1673903251574824E-14</v>
       </c>
       <c r="C89">
-        <v>4.4840674383471597E-15</v>
+        <v>5.766625272534449E-14</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4564,16 +4564,16 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-7.0942048696688418E-5</v>
+        <v>-4.9086426610814699E-5</v>
       </c>
       <c r="G89">
-        <v>1.8627075190933183E-15</v>
+        <v>1.4080800018031628E-14</v>
       </c>
       <c r="H89">
-        <v>-4.7492873831187251E-16</v>
+        <v>-4.3197191855272518E-15</v>
       </c>
       <c r="I89">
-        <v>6.5996590908273197E-16</v>
+        <v>4.7999699453222479E-15</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4582,27 +4582,27 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>-1.0437776013875559E-9</v>
+        <v>-4.4971781323534444E-7</v>
       </c>
       <c r="M89">
-        <v>1.5302074218690207E-4</v>
+        <v>3.9670043184162106E-3</v>
       </c>
       <c r="N89">
-        <v>1.0858704517689876E-4</v>
+        <v>3.6004136965529909E-3</v>
       </c>
       <c r="O89">
-        <v>1.1537098140291925E-5</v>
+        <v>1.0159307144560322E-4</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>9.6712761256235862E-15</v>
+        <v>1.2898000128253834E-13</v>
       </c>
       <c r="B90">
-        <v>-2.2697892947892088E-15</v>
+        <v>-3.8447657755926097E-14</v>
       </c>
       <c r="C90">
-        <v>3.188807242951144E-15</v>
+        <v>4.2899017671516046E-14</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4611,16 +4611,16 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-6.8849839031307855E-5</v>
+        <v>-4.7548452759671456E-5</v>
       </c>
       <c r="G90">
-        <v>1.30759600678074E-15</v>
+        <v>1.0470354741950619E-14</v>
       </c>
       <c r="H90">
-        <v>-2.898915675410131E-16</v>
+        <v>-3.208227334588238E-15</v>
       </c>
       <c r="I90">
-        <v>4.3792130415770066E-16</v>
+        <v>3.5666707682529317E-15</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4629,27 +4629,27 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>-8.7790909727066457E-10</v>
+        <v>-4.1822617539758308E-7</v>
       </c>
       <c r="M90">
-        <v>1.4111921647792021E-4</v>
+        <v>3.8496679921605154E-3</v>
       </c>
       <c r="N90">
-        <v>1.0019339630402814E-4</v>
+        <v>3.4989480913246319E-3</v>
       </c>
       <c r="O90">
-        <v>1.0625748992891074E-5</v>
+        <v>9.7323222688767386E-5</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6.8587111299065227E-15</v>
+        <v>9.5994323601189534E-14</v>
       </c>
       <c r="B91">
-        <v>-1.6529987255530109E-15</v>
+        <v>-2.8603151593285607E-14</v>
       </c>
       <c r="C91">
-        <v>2.2451176720197609E-15</v>
+        <v>3.1930014188219505E-14</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4658,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-6.6831324434844954E-5</v>
+        <v>-4.6070271834926277E-5</v>
       </c>
       <c r="G91">
-        <v>9.1285004246957307E-16</v>
+        <v>7.7766364776315247E-15</v>
       </c>
       <c r="H91">
-        <v>-2.2821251061739327E-16</v>
+        <v>-2.3860278832086935E-15</v>
       </c>
       <c r="I91">
-        <v>3.0839528461809903E-16</v>
+        <v>2.6499437564910165E-15</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4676,27 +4676,27 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>-7.3839902710777971E-10</v>
+        <v>-3.8900420473148802E-7</v>
       </c>
       <c r="M91">
-        <v>1.301555415045409E-4</v>
+        <v>3.7367252722471803E-3</v>
       </c>
       <c r="N91">
-        <v>9.2456658024542282E-5</v>
+        <v>3.4010638419397971E-3</v>
       </c>
       <c r="O91">
-        <v>9.7874242255577583E-6</v>
+        <v>9.3266629159489059E-5</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>4.8849813083506888E-15</v>
+        <v>7.1466642128013643E-14</v>
       </c>
       <c r="B92">
-        <v>-1.1533983644716904E-15</v>
+        <v>-2.1287733480741215E-14</v>
       </c>
       <c r="C92">
-        <v>1.6159912913988389E-15</v>
+        <v>2.376384803223378E-14</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -4705,16 +4705,16 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-6.4882736401613198E-5</v>
+        <v>-4.4648865553766901E-5</v>
       </c>
       <c r="G92">
-        <v>6.5379800339037001E-16</v>
+        <v>5.7871168175032448E-15</v>
       </c>
       <c r="H92">
-        <v>-1.6653345369377348E-16</v>
+        <v>-1.7719159473017499E-15</v>
       </c>
       <c r="I92">
-        <v>2.3438041630975528E-16</v>
+        <v>1.9711216785773494E-15</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4723,27 +4723,27 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>-6.2105875997531257E-10</v>
+        <v>-3.6188234995039792E-7</v>
       </c>
       <c r="M92">
-        <v>1.2005474273392281E-4</v>
+        <v>3.6279723369407467E-3</v>
       </c>
       <c r="N92">
-        <v>8.5324712961829289E-5</v>
+        <v>3.3066039866156329E-3</v>
       </c>
       <c r="O92">
-        <v>9.016180509049646E-6</v>
+        <v>8.9411216470148977E-5</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>3.4170197535685374E-15</v>
+        <v>5.3225360626843864E-14</v>
       </c>
       <c r="B93">
-        <v>-8.0799564569941947E-16</v>
+        <v>-1.5846689040342555E-14</v>
       </c>
       <c r="C93">
-        <v>1.1225588360098805E-15</v>
+        <v>1.7696320599368065E-14</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -4752,16 +4752,16 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-6.3000596262932326E-5</v>
+        <v>-4.3281408970460133E-5</v>
       </c>
       <c r="G93">
-        <v>4.8109664400423447E-16</v>
+        <v>4.3006867908193921E-15</v>
       </c>
       <c r="H93">
-        <v>-1.0485439677015367E-16</v>
+        <v>-1.3129180282638637E-15</v>
       </c>
       <c r="I93">
-        <v>1.4186183092432555E-16</v>
+        <v>1.45915026093592E-15</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4770,27 +4770,27 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>-5.2236524365293724E-10</v>
+        <v>-3.3670428626120244E-7</v>
       </c>
       <c r="M93">
-        <v>1.107479353033014E-4</v>
+        <v>3.5232164859800219E-3</v>
       </c>
       <c r="N93">
-        <v>7.8749641305633463E-5</v>
+        <v>3.2154197249936495E-3</v>
       </c>
       <c r="O93">
-        <v>8.3065665821773707E-6</v>
+        <v>8.5745661506742639E-5</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2.4178190314058966E-15</v>
+        <v>3.964765024225666E-14</v>
       </c>
       <c r="B94">
-        <v>-5.8595104077438816E-16</v>
+        <v>-1.1796595446509985E-14</v>
       </c>
       <c r="C94">
-        <v>7.8332402292997154E-16</v>
+        <v>1.3182470987820644E-14</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -4799,16 +4799,16 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>-6.1181687207485018E-5</v>
+        <v>-4.1965255624714412E-5</v>
       </c>
       <c r="G94">
-        <v>3.20731096002823E-16</v>
+        <v>3.1961734846065937E-15</v>
       </c>
       <c r="H94">
-        <v>-6.7846962615981794E-17</v>
+        <v>-9.7414140246395875E-16</v>
       </c>
       <c r="I94">
-        <v>1.1102230246251565E-16</v>
+        <v>1.0861153246618674E-15</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4817,27 +4817,27 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>-4.3935527438421218E-10</v>
+        <v>-3.1332583031483196E-7</v>
       </c>
       <c r="M94">
-        <v>1.021718206241578E-4</v>
+        <v>3.4222754589308532E-3</v>
       </c>
       <c r="N94">
-        <v>7.2687377049647964E-5</v>
+        <v>3.1273699377563418E-3</v>
       </c>
       <c r="O94">
-        <v>7.6535817401338999E-6</v>
+        <v>8.2259342005056423E-5</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1.7516852166308026E-15</v>
+        <v>2.9536373347127667E-14</v>
       </c>
       <c r="B95">
-        <v>-3.8857805861880479E-16</v>
+        <v>-8.7897942892465972E-15</v>
       </c>
       <c r="C95">
-        <v>5.6127941800494023E-16</v>
+        <v>9.8181780166279566E-15</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4846,16 +4846,16 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>-5.9423029244227215E-5</v>
+        <v>-4.0697923993102998E-5</v>
       </c>
       <c r="G95">
-        <v>2.3438041630975528E-16</v>
+        <v>2.3784149253255497E-15</v>
       </c>
       <c r="H95">
-        <v>-4.3175339846533866E-17</v>
+        <v>-7.232309988986734E-16</v>
       </c>
       <c r="I95">
-        <v>6.7846962615981794E-17</v>
+        <v>8.120488408686859E-16</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4864,27 +4864,27 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>-3.695365680123075E-10</v>
+        <v>-2.9161394935885354E-7</v>
       </c>
       <c r="M95">
-        <v>9.4268225417483263E-5</v>
+        <v>3.3249767991039804E-3</v>
       </c>
       <c r="N95">
-        <v>6.7097392907568119E-5</v>
+        <v>3.0423207372412822E-3</v>
       </c>
       <c r="O95">
-        <v>7.0526378971499009E-6</v>
+        <v>7.8942289734889039E-5</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1.2335811384723961E-15</v>
+        <v>2.2012867719110676E-14</v>
       </c>
       <c r="B96">
-        <v>-2.8372366184865109E-16</v>
+        <v>-6.5579288031715678E-15</v>
       </c>
       <c r="C96">
-        <v>4.0091387000352876E-16</v>
+        <v>7.321762244113675E-15</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4893,16 +4893,16 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-5.7721856786516509E-5</v>
+        <v>-3.9477085117444033E-5</v>
       </c>
       <c r="G96">
-        <v>1.4802973661668753E-16</v>
+        <v>1.7706471209878925E-15</v>
       </c>
       <c r="H96">
-        <v>-3.7007434154171883E-17</v>
+        <v>-5.3988559654629042E-16</v>
       </c>
       <c r="I96">
-        <v>4.3175339846533866E-17</v>
+        <v>5.9888602014065585E-16</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -4911,27 +4911,27 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>-3.1081287543699432E-10</v>
+        <v>-2.7144585576685134E-7</v>
       </c>
       <c r="M96">
-        <v>8.6983679523015375E-5</v>
+        <v>3.2311572597738085E-3</v>
       </c>
       <c r="N96">
-        <v>6.1942411466077272E-5</v>
+        <v>2.9601450469015464E-3</v>
       </c>
       <c r="O96">
-        <v>6.4995249093560383E-6</v>
+        <v>7.5785147019396298E-5</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>8.7584260831540131E-16</v>
+        <v>1.6422418980255314E-14</v>
       </c>
       <c r="B97">
-        <v>-1.9737298215558337E-16</v>
+        <v>-4.8814920359875813E-15</v>
       </c>
       <c r="C97">
-        <v>2.6521994477156517E-16</v>
+        <v>5.4572219759003408E-15</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4940,16 +4940,16 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-5.6075598574111142E-5</v>
+        <v>-3.830055129686435E-5</v>
       </c>
       <c r="G97">
-        <v>8.6350679693067732E-17</v>
+        <v>1.3202137795685433E-15</v>
       </c>
       <c r="H97">
-        <v>-6.1679056923619804E-18</v>
+        <v>-4.0221794149277099E-16</v>
       </c>
       <c r="I97">
-        <v>3.7007434154171883E-17</v>
+        <v>4.4789568879163463E-16</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -4958,27 +4958,27 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>-2.6142105147286543E-10</v>
+        <v>-2.5270817929801123E-7</v>
       </c>
       <c r="M97">
-        <v>8.0269029154256266E-5</v>
+        <v>3.1406622496815738E-3</v>
       </c>
       <c r="N97">
-        <v>5.7188140344641455E-5</v>
+        <v>2.8807222076206035E-3</v>
       </c>
       <c r="O97">
-        <v>5.9903788707115086E-6</v>
+        <v>7.2779126338155136E-5</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6.0445475785147414E-16</v>
+        <v>1.2239733036624654E-14</v>
       </c>
       <c r="B98">
-        <v>-1.3569392523196359E-16</v>
+        <v>-3.6415315207705131E-15</v>
       </c>
       <c r="C98">
-        <v>1.8503717077085943E-16</v>
+        <v>4.0640506832850015E-15</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4987,16 +4987,16 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>-5.448185967961273E-5</v>
+        <v>-3.7166265742298551E-5</v>
       </c>
       <c r="G98">
-        <v>7.4014868308343765E-17</v>
+        <v>9.8143715376863837E-16</v>
       </c>
       <c r="H98">
-        <v>-6.1679056923619804E-18</v>
+        <v>-2.9627094428568463E-16</v>
       </c>
       <c r="I98">
-        <v>1.2335811384723961E-17</v>
+        <v>3.3116366791676096E-16</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5005,27 +5005,27 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>-2.1987818972964609E-10</v>
+        <v>-2.3529620986918941E-7</v>
       </c>
       <c r="M98">
-        <v>7.4079082558939672E-5</v>
+        <v>3.0533453150348279E-3</v>
       </c>
       <c r="N98">
-        <v>5.2803029327160487E-5</v>
+        <v>2.8039376090354248E-3</v>
       </c>
       <c r="O98">
-        <v>5.5216531219537401E-6</v>
+        <v>6.9915972782761716E-5</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4.1941758708061468E-16</v>
+        <v>9.1304741545172868E-15</v>
       </c>
       <c r="B99">
-        <v>-9.8686491077791687E-17</v>
+        <v>-2.7159227248115972E-15</v>
       </c>
       <c r="C99">
-        <v>1.4186183092432555E-16</v>
+        <v>3.0343981295897849E-15</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5034,16 +5034,16 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>-5.2938405374187208E-5</v>
+        <v>-3.6072293102381107E-5</v>
       </c>
       <c r="G99">
-        <v>2.4671622769447922E-17</v>
+        <v>7.2703747784024541E-16</v>
       </c>
       <c r="H99">
-        <v>-6.1679056923619804E-18</v>
+        <v>-2.2141019176810264E-16</v>
       </c>
       <c r="I99">
-        <v>6.1679056923619804E-18</v>
+        <v>2.4678671804524908E-16</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5052,27 +5052,27 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>-1.8493695463916993E-10</v>
+        <v>-2.1911320460699102E-7</v>
       </c>
       <c r="M99">
-        <v>6.8372285312756631E-5</v>
+        <v>2.9690676554247437E-3</v>
       </c>
       <c r="N99">
-        <v>4.8758047605666923E-5</v>
+        <v>2.7296823441568668E-3</v>
       </c>
       <c r="O99">
-        <v>5.0900917354441197E-6</v>
+        <v>6.7187929151772333E-5</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2.9605947323337506E-16</v>
+        <v>6.8199414369831047E-15</v>
       </c>
       <c r="B100">
-        <v>-6.7846962615981794E-17</v>
+        <v>-2.0237779706024281E-15</v>
       </c>
       <c r="C100">
-        <v>9.2518585385429716E-17</v>
+        <v>2.2629517307645335E-15</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5081,16 +5081,16 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-5.1443146653136949E-5</v>
+        <v>-3.5016810779314256E-5</v>
       </c>
       <c r="G100">
-        <v>1.2335811384723961E-17</v>
+        <v>5.3861677023243309E-16</v>
       </c>
       <c r="H100">
-        <v>-6.1679056923619804E-18</v>
+        <v>-1.636785944875945E-16</v>
       </c>
       <c r="I100">
-        <v>6.1679056923619804E-18</v>
+        <v>1.8271098919545433E-16</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5099,27 +5099,27 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>-1.5554831496918572E-10</v>
+        <v>-2.0406975326839724E-7</v>
       </c>
       <c r="M100">
-        <v>6.3110422717548178E-5</v>
+        <v>2.8876976712760446E-3</v>
       </c>
       <c r="N100">
-        <v>4.5026479438221083E-5</v>
+        <v>2.6578528857009146E-3</v>
       </c>
       <c r="O100">
-        <v>4.6927052594347707E-6</v>
+        <v>6.4587703488538931E-5</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1.8503717077085943E-16</v>
+        <v>5.0829182133124306E-15</v>
       </c>
       <c r="B101">
-        <v>-5.5511151231257827E-17</v>
+        <v>-1.5118065529609989E-15</v>
       </c>
       <c r="C101">
-        <v>6.7846962615981794E-17</v>
+        <v>1.6875389974302379E-15</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5128,16 +5128,16 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>-4.9994127242121898E-5</v>
+        <v>-3.399810096119893E-5</v>
       </c>
       <c r="G101">
-        <v>1.2335811384723961E-17</v>
+        <v>4.0221794149277099E-16</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>-1.1926967350258825E-16</v>
       </c>
       <c r="I101">
-        <v>6.1679056923619804E-18</v>
+        <v>1.3576441558273343E-16</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5146,16 +5146,16 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>-1.3082986545972139E-10</v>
+        <v>-1.9008319696224771E-7</v>
       </c>
       <c r="M101">
-        <v>5.8258346994811814E-5</v>
+        <v>2.809110540622784E-3</v>
       </c>
       <c r="N101">
-        <v>4.1583736668472491E-5</v>
+        <v>2.5883507826590098E-3</v>
       </c>
       <c r="O101">
-        <v>4.3267485254997835E-6</v>
+        <v>6.2108438881035405E-5</v>
       </c>
     </row>
   </sheetData>
